--- a/exercises/exercises02_solutions.xlsx
+++ b/exercises/exercises02_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3669" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C42FAC03-E2EB-492F-89C5-B9EE44DE0A12}"/>
+  <xr:revisionPtr revIDLastSave="3687" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9140043F-3795-40E1-B770-A40271CFB70F}"/>
   <bookViews>
-    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="965" firstSheet="1" activeTab="4" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="965" firstSheet="1" activeTab="4" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="800">
   <si>
     <t>Male</t>
   </si>
@@ -2267,21 +2267,6 @@
   </si>
   <si>
     <t>You can’t connect the dots looking forward; you can only connect them looking backwards. So you have to trust that the dots will somehow connect in your future.</t>
-  </si>
-  <si>
-    <t>Write a formula that counts how many times the</t>
-  </si>
-  <si>
-    <t>word in the orange box appears in a text. Use the</t>
-  </si>
-  <si>
-    <t>formula to count the number of words in the</t>
-  </si>
-  <si>
-    <t>to see how I made a function counting the number of</t>
-  </si>
-  <si>
-    <t>words.)</t>
   </si>
   <si>
     <t>Exercise3</t>
@@ -2504,32 +2489,6 @@
     <t>Remember to use =&gt; and &lt;= for inequalities!</t>
   </si>
   <si>
-    <r>
-      <t>sentences of Table 2. (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hint:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Look at the lecture notes</t>
-    </r>
-  </si>
-  <si>
     <t>You need to subsititute every instance of the word for</t>
   </si>
   <si>
@@ -2570,6 +2529,30 @@
   </si>
   <si>
     <t>b) What is the total sales of salespeople with first name ending in "e" with shirt size "S" or smaller?</t>
+  </si>
+  <si>
+    <t>Write a formula that counts how many times the word</t>
+  </si>
+  <si>
+    <t>in the orange box appears in a text. Use the formula to</t>
+  </si>
+  <si>
+    <t>count the number of words in the sentences of Table</t>
+  </si>
+  <si>
+    <t>2. The formula does not have to work for text starting</t>
+  </si>
+  <si>
+    <t>with the word ("Of course I love television!") or text</t>
+  </si>
+  <si>
+    <t>with adjacent instances of the word ("of of of") (Hint:</t>
+  </si>
+  <si>
+    <t>Look at the lecture notes to see how I made a function</t>
+  </si>
+  <si>
+    <t>counting the number of words.)</t>
   </si>
 </sst>
 </file>
@@ -2911,7 +2894,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2938,32 +2921,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="9"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="9"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="6"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -3291,8 +3273,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>70757</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3354,7 +3336,7 @@
                   <m:f>
                     <m:fPr>
                       <m:ctrlPr>
-                        <a:rPr lang="nb-NO" sz="1100" b="0" i="0">
+                        <a:rPr lang="nb-NO" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -3505,7 +3487,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3781,8 +3763,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -3900,7 +3882,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -10920,29 +10902,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="F2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10985,7 +10967,7 @@
         <f t="array" ref="I4">_xlfn.IFS(H4&gt;=$E$4,$F$4,H4&gt;=$E$5,$F$5,H4&gt;=$E$6,$F$6,H4&gt;=$E$7,$F$7,H4&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>C</v>
       </c>
-      <c r="J4" s="24" t="str">
+      <c r="J4" t="str">
         <f>IF(H4&gt;=$E$4,$F$4,IF(H4&gt;=$E$5,$F$5,IF(H4&gt;=$E$6,$F$6,IF(H4&gt;=$E$7,$F$7,IF(H4&gt;=$E$8,$F$8,$F$9)))))</f>
         <v>C</v>
       </c>
@@ -11005,11 +10987,11 @@
       <c r="H5">
         <v>70</v>
       </c>
-      <c r="I5" s="24" t="str" cm="1">
+      <c r="I5" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(H5&gt;=$E$4,$F$4,H5&gt;=$E$5,$F$5,H5&gt;=$E$6,$F$6,H5&gt;=$E$7,$F$7,H5&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>C</v>
       </c>
-      <c r="J5" s="24" t="str">
+      <c r="J5" t="str">
         <f t="shared" ref="J5:J23" si="0">IF(H5&gt;=$E$4,$F$4,IF(H5&gt;=$E$5,$F$5,IF(H5&gt;=$E$6,$F$6,IF(H5&gt;=$E$7,$F$7,IF(H5&gt;=$E$8,$F$8,$F$9)))))</f>
         <v>C</v>
       </c>
@@ -11029,11 +11011,11 @@
       <c r="H6">
         <v>74</v>
       </c>
-      <c r="I6" s="24" t="str" cm="1">
+      <c r="I6" t="str" cm="1">
         <f t="array" ref="I6">_xlfn.IFS(H6&gt;=$E$4,$F$4,H6&gt;=$E$5,$F$5,H6&gt;=$E$6,$F$6,H6&gt;=$E$7,$F$7,H6&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>C</v>
       </c>
-      <c r="J6" s="24" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
@@ -11053,11 +11035,11 @@
       <c r="H7">
         <v>47</v>
       </c>
-      <c r="I7" s="24" t="str" cm="1">
+      <c r="I7" t="str" cm="1">
         <f t="array" ref="I7">_xlfn.IFS(H7&gt;=$E$4,$F$4,H7&gt;=$E$5,$F$5,H7&gt;=$E$6,$F$6,H7&gt;=$E$7,$F$7,H7&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>E</v>
       </c>
-      <c r="J7" s="24" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
@@ -11077,11 +11059,11 @@
       <c r="H8">
         <v>86</v>
       </c>
-      <c r="I8" s="24" t="str" cm="1">
+      <c r="I8" t="str" cm="1">
         <f t="array" ref="I8">_xlfn.IFS(H8&gt;=$E$4,$F$4,H8&gt;=$E$5,$F$5,H8&gt;=$E$6,$F$6,H8&gt;=$E$7,$F$7,H8&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>B</v>
       </c>
-      <c r="J8" s="24" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
@@ -11101,11 +11083,11 @@
       <c r="H9">
         <v>86</v>
       </c>
-      <c r="I9" s="24" t="str" cm="1">
+      <c r="I9" t="str" cm="1">
         <f t="array" ref="I9">_xlfn.IFS(H9&gt;=$E$4,$F$4,H9&gt;=$E$5,$F$5,H9&gt;=$E$6,$F$6,H9&gt;=$E$7,$F$7,H9&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>B</v>
       </c>
-      <c r="J9" s="24" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
@@ -11119,11 +11101,11 @@
       <c r="H10">
         <v>29</v>
       </c>
-      <c r="I10" s="24" t="str" cm="1">
+      <c r="I10" t="str" cm="1">
         <f t="array" ref="I10">_xlfn.IFS(H10&gt;=$E$4,$F$4,H10&gt;=$E$5,$F$5,H10&gt;=$E$6,$F$6,H10&gt;=$E$7,$F$7,H10&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>F</v>
       </c>
-      <c r="J10" s="24" t="str">
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
@@ -11132,18 +11114,18 @@
       <c r="H11">
         <v>54</v>
       </c>
-      <c r="I11" s="24" t="str" cm="1">
+      <c r="I11" t="str" cm="1">
         <f t="array" ref="I11">_xlfn.IFS(H11&gt;=$E$4,$F$4,H11&gt;=$E$5,$F$5,H11&gt;=$E$6,$F$6,H11&gt;=$E$7,$F$7,H11&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>D</v>
       </c>
-      <c r="J11" s="24" t="str">
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>782</v>
+      <c r="A12" s="23" t="s">
+        <v>777</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11151,11 +11133,11 @@
       <c r="H12">
         <v>96</v>
       </c>
-      <c r="I12" s="24" t="str" cm="1">
+      <c r="I12" t="str" cm="1">
         <f t="array" ref="I12">_xlfn.IFS(H12&gt;=$E$4,$F$4,H12&gt;=$E$5,$F$5,H12&gt;=$E$6,$F$6,H12&gt;=$E$7,$F$7,H12&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>A</v>
       </c>
-      <c r="J12" s="24" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
@@ -11164,11 +11146,11 @@
       <c r="H13">
         <v>20</v>
       </c>
-      <c r="I13" s="24" t="str" cm="1">
+      <c r="I13" t="str" cm="1">
         <f t="array" ref="I13">_xlfn.IFS(H13&gt;=$E$4,$F$4,H13&gt;=$E$5,$F$5,H13&gt;=$E$6,$F$6,H13&gt;=$E$7,$F$7,H13&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>F</v>
       </c>
-      <c r="J13" s="24" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
@@ -11177,11 +11159,11 @@
       <c r="H14">
         <v>45</v>
       </c>
-      <c r="I14" s="24" t="str" cm="1">
+      <c r="I14" t="str" cm="1">
         <f t="array" ref="I14">_xlfn.IFS(H14&gt;=$E$4,$F$4,H14&gt;=$E$5,$F$5,H14&gt;=$E$6,$F$6,H14&gt;=$E$7,$F$7,H14&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>E</v>
       </c>
-      <c r="J14" s="24" t="str">
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
@@ -11190,11 +11172,11 @@
       <c r="H15">
         <v>91</v>
       </c>
-      <c r="I15" s="24" t="str" cm="1">
+      <c r="I15" t="str" cm="1">
         <f t="array" ref="I15">_xlfn.IFS(H15&gt;=$E$4,$F$4,H15&gt;=$E$5,$F$5,H15&gt;=$E$6,$F$6,H15&gt;=$E$7,$F$7,H15&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>A</v>
       </c>
-      <c r="J15" s="24" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
@@ -11203,11 +11185,11 @@
       <c r="H16">
         <v>93</v>
       </c>
-      <c r="I16" s="24" t="str" cm="1">
+      <c r="I16" t="str" cm="1">
         <f t="array" ref="I16">_xlfn.IFS(H16&gt;=$E$4,$F$4,H16&gt;=$E$5,$F$5,H16&gt;=$E$6,$F$6,H16&gt;=$E$7,$F$7,H16&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>A</v>
       </c>
-      <c r="J16" s="24" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
@@ -11216,11 +11198,11 @@
       <c r="H17">
         <v>33</v>
       </c>
-      <c r="I17" s="24" t="str" cm="1">
+      <c r="I17" t="str" cm="1">
         <f t="array" ref="I17">_xlfn.IFS(H17&gt;=$E$4,$F$4,H17&gt;=$E$5,$F$5,H17&gt;=$E$6,$F$6,H17&gt;=$E$7,$F$7,H17&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>F</v>
       </c>
-      <c r="J17" s="24" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
@@ -11229,11 +11211,11 @@
       <c r="H18">
         <v>85</v>
       </c>
-      <c r="I18" s="24" t="str" cm="1">
+      <c r="I18" t="str" cm="1">
         <f t="array" ref="I18">_xlfn.IFS(H18&gt;=$E$4,$F$4,H18&gt;=$E$5,$F$5,H18&gt;=$E$6,$F$6,H18&gt;=$E$7,$F$7,H18&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>B</v>
       </c>
-      <c r="J18" s="24" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
@@ -11242,11 +11224,11 @@
       <c r="H19">
         <v>56</v>
       </c>
-      <c r="I19" s="24" t="str" cm="1">
+      <c r="I19" t="str" cm="1">
         <f t="array" ref="I19">_xlfn.IFS(H19&gt;=$E$4,$F$4,H19&gt;=$E$5,$F$5,H19&gt;=$E$6,$F$6,H19&gt;=$E$7,$F$7,H19&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>D</v>
       </c>
-      <c r="J19" s="24" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
@@ -11255,11 +11237,11 @@
       <c r="H20">
         <v>43</v>
       </c>
-      <c r="I20" s="24" t="str" cm="1">
+      <c r="I20" t="str" cm="1">
         <f t="array" ref="I20">_xlfn.IFS(H20&gt;=$E$4,$F$4,H20&gt;=$E$5,$F$5,H20&gt;=$E$6,$F$6,H20&gt;=$E$7,$F$7,H20&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>E</v>
       </c>
-      <c r="J20" s="24" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
@@ -11268,11 +11250,11 @@
       <c r="H21">
         <v>78</v>
       </c>
-      <c r="I21" s="24" t="str" cm="1">
+      <c r="I21" t="str" cm="1">
         <f t="array" ref="I21">_xlfn.IFS(H21&gt;=$E$4,$F$4,H21&gt;=$E$5,$F$5,H21&gt;=$E$6,$F$6,H21&gt;=$E$7,$F$7,H21&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>C</v>
       </c>
-      <c r="J21" s="24" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
@@ -11281,11 +11263,11 @@
       <c r="H22">
         <v>95</v>
       </c>
-      <c r="I22" s="24" t="str" cm="1">
+      <c r="I22" t="str" cm="1">
         <f t="array" ref="I22">_xlfn.IFS(H22&gt;=$E$4,$F$4,H22&gt;=$E$5,$F$5,H22&gt;=$E$6,$F$6,H22&gt;=$E$7,$F$7,H22&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>A</v>
       </c>
-      <c r="J22" s="24" t="str">
+      <c r="J22" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
@@ -11294,47 +11276,47 @@
       <c r="H23">
         <v>91</v>
       </c>
-      <c r="I23" s="24" t="str" cm="1">
+      <c r="I23" t="str" cm="1">
         <f t="array" ref="I23">_xlfn.IFS(H23&gt;=$E$4,$F$4,H23&gt;=$E$5,$F$5,H23&gt;=$E$6,$F$6,H23&gt;=$E$7,$F$7,H23&gt;=$E$8,$F$8,TRUE,$F$9)</f>
         <v>A</v>
       </c>
-      <c r="J23" s="24" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="E27" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="E27" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -11356,7 +11338,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -11379,7 +11361,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -11395,15 +11377,14 @@
       <c r="H30" t="s">
         <v>482</v>
       </c>
-      <c r="I30" s="24" t="b" cm="1">
+      <c r="I30" t="b" cm="1">
         <f t="array" ref="I30">_xlfn.IFS(F30="Bethesda Studios",TRUE,AND(H30="Japan",G30&lt;200000),TRUE,AND(H30&lt;&gt;"Japan",G30&gt;500000),TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -11419,15 +11400,14 @@
       <c r="H31" t="s">
         <v>481</v>
       </c>
-      <c r="I31" s="24" t="b" cm="1">
+      <c r="I31" t="b" cm="1">
         <f t="array" ref="I31">_xlfn.IFS(F31="Bethesda Studios",TRUE,AND(H31="Japan",G31&lt;200000),TRUE,AND(H31&lt;&gt;"Japan",G31&gt;500000),TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11443,15 +11423,14 @@
       <c r="H32" t="s">
         <v>481</v>
       </c>
-      <c r="I32" s="24" t="b" cm="1">
+      <c r="I32" t="b" cm="1">
         <f t="array" ref="I32">_xlfn.IFS(F32="Bethesda Studios",TRUE,AND(H32="Japan",G32&lt;200000),TRUE,AND(H32&lt;&gt;"Japan",G32&gt;500000),TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11467,15 +11446,14 @@
       <c r="H33" t="s">
         <v>482</v>
       </c>
-      <c r="I33" s="24" t="b" cm="1">
+      <c r="I33" t="b" cm="1">
         <f t="array" ref="I33">_xlfn.IFS(F33="Bethesda Studios",TRUE,AND(H33="Japan",G33&lt;200000),TRUE,AND(H33&lt;&gt;"Japan",G33&gt;500000),TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11491,15 +11469,14 @@
       <c r="H34" t="s">
         <v>483</v>
       </c>
-      <c r="I34" s="24" t="b" cm="1">
+      <c r="I34" t="b" cm="1">
         <f t="array" ref="I34">_xlfn.IFS(F34="Bethesda Studios",TRUE,AND(H34="Japan",G34&lt;200000),TRUE,AND(H34&lt;&gt;"Japan",G34&gt;500000),TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11515,13 +11492,12 @@
       <c r="H35" t="s">
         <v>484</v>
       </c>
-      <c r="I35" s="24" t="b" cm="1">
+      <c r="I35" t="b" cm="1">
         <f t="array" ref="I35">_xlfn.IFS(F35="Bethesda Studios",TRUE,AND(H35="Japan",G35&lt;200000),TRUE,AND(H35&lt;&gt;"Japan",G35&gt;500000),TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11537,13 +11513,12 @@
       <c r="H36" t="s">
         <v>481</v>
       </c>
-      <c r="I36" s="24" t="b" cm="1">
+      <c r="I36" t="b" cm="1">
         <f t="array" ref="I36">_xlfn.IFS(F36="Bethesda Studios",TRUE,AND(H36="Japan",G36&lt;200000),TRUE,AND(H36&lt;&gt;"Japan",G36&gt;500000),TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>495</v>
       </c>
@@ -11556,13 +11531,12 @@
       <c r="H37" t="s">
         <v>482</v>
       </c>
-      <c r="I37" s="24" t="b" cm="1">
+      <c r="I37" t="b" cm="1">
         <f t="array" ref="I37">_xlfn.IFS(F37="Bethesda Studios",TRUE,AND(H37="Japan",G37&lt;200000),TRUE,AND(H37&lt;&gt;"Japan",G37&gt;500000),TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>503</v>
       </c>
@@ -11576,41 +11550,41 @@
       <c r="I40" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
     </row>
     <row r="117" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="E118" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
+      <c r="E118" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="E119" s="12" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>436</v>
@@ -11619,136 +11593,136 @@
         <v>437</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="E120" s="24" t="s">
+      <c r="E120" t="s">
         <v>102</v>
       </c>
-      <c r="F120" s="24" t="s">
+      <c r="F120" t="s">
         <v>103</v>
       </c>
-      <c r="G120" s="24">
+      <c r="G120">
         <v>8.81</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="E121" s="24" t="s">
+      <c r="E121" t="s">
         <v>104</v>
       </c>
-      <c r="F121" s="24" t="s">
+      <c r="F121" t="s">
         <v>105</v>
       </c>
-      <c r="G121" s="24">
+      <c r="G121">
         <v>166.1</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="E122" s="24" t="s">
+      <c r="E122" t="s">
         <v>106</v>
       </c>
-      <c r="F122" s="24" t="s">
+      <c r="F122" t="s">
         <v>107</v>
       </c>
-      <c r="G122" s="24">
+      <c r="G122">
         <v>246.21</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="E123" s="24" t="s">
+      <c r="E123" t="s">
         <v>108</v>
       </c>
-      <c r="F123" s="24" t="s">
+      <c r="F123" t="s">
         <v>109</v>
       </c>
-      <c r="G123" s="24">
+      <c r="G123">
         <v>687.25</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="E124" s="24" t="s">
+      <c r="E124" t="s">
         <v>111</v>
       </c>
-      <c r="F124" s="24" t="s">
+      <c r="F124" t="s">
         <v>112</v>
       </c>
-      <c r="G124" s="24">
+      <c r="G124">
         <v>388.17</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E125" s="24" t="s">
+      <c r="E125" t="s">
         <v>113</v>
       </c>
-      <c r="F125" s="24" t="s">
+      <c r="F125" t="s">
         <v>114</v>
       </c>
-      <c r="G125" s="24">
+      <c r="G125">
         <v>634.55999999999995</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E126" s="24" t="s">
+      <c r="E126" t="s">
         <v>115</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F126" t="s">
         <v>116</v>
       </c>
-      <c r="G126" s="24">
+      <c r="G126">
         <v>777.88</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E127" s="24" t="s">
+      <c r="E127" t="s">
         <v>117</v>
       </c>
-      <c r="F127" s="24" t="s">
+      <c r="F127" t="s">
         <v>118</v>
       </c>
-      <c r="G127" s="24">
+      <c r="G127">
         <v>89.66</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E128" s="24" t="s">
+      <c r="E128" t="s">
         <v>119</v>
       </c>
-      <c r="F128" s="24" t="s">
+      <c r="F128" t="s">
         <v>120</v>
       </c>
-      <c r="G128" s="24">
+      <c r="G128">
         <v>154.86000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E130" s="27" t="s">
-        <v>738</v>
+      <c r="E130" s="22" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -11757,73 +11731,73 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E132" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
+      <c r="E132" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E133" s="27" t="s">
+      <c r="E133" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="G133" s="27" t="s">
-        <v>732</v>
+      <c r="G133" s="22" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E134">
         <v>650</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="21">
         <v>0.23</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E135" s="26" t="s">
-        <v>734</v>
-      </c>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
+      <c r="E135" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E136" s="27" t="s">
+      <c r="E136" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="G136" s="27" t="s">
-        <v>736</v>
+      <c r="G136" s="22" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E137">
         <v>300</v>
       </c>
-      <c r="G137" s="25">
+      <c r="G137" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
-      <c r="J140" s="16"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="28"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E142" s="28" t="s">
-        <v>739</v>
-      </c>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
+      <c r="E142" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E143" s="12" t="s">
@@ -12775,30 +12749,30 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
-      <c r="D214" s="21"/>
-      <c r="E214" s="21"/>
-      <c r="F214" s="21"/>
-      <c r="G214" s="21"/>
-      <c r="H214" s="20"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="E135:G135"/>
-    <mergeCell ref="E118:H118"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E142:H142"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A140:J140"/>
     <mergeCell ref="A116:J116"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="E118:H118"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E142:H142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12824,125 +12798,125 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>18</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>15</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>15</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>20</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>13</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>12</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>20</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>17</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>10</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>20</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>13</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>17</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>20</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>15</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>16</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>13</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>18</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>16</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>11</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>11</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>18</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>18</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>17</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>18</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>20</v>
       </c>
     </row>
@@ -12950,22 +12924,22 @@
       <c r="A11" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>18</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>15</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>13</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>20</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>19</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>19</v>
       </c>
     </row>
@@ -12976,16 +12950,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13039,7 +13013,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C19">
         <f>LOG(10^5)</f>
@@ -13051,7 +13025,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C20">
         <f>10^(LOG(4))</f>
@@ -13076,10 +13050,10 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B22" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C22">
         <f>EXP(3)^3</f>
@@ -13092,7 +13066,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B23" t="s">
         <v>471</v>
@@ -13107,20 +13081,20 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -13349,16 +13323,16 @@
       </c>
     </row>
     <row r="34" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -13371,85 +13345,85 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36">
         <v>5</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36">
         <v>6</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36">
         <v>7</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36">
         <v>8</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36">
         <v>9</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36">
         <v>10</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36">
         <v>11</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36">
         <v>12</v>
       </c>
-      <c r="N36" s="24">
+      <c r="N36">
         <v>13</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36">
         <v>14</v>
       </c>
-      <c r="P36" s="24">
+      <c r="P36">
         <v>15</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q36">
         <v>16</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36">
         <v>17</v>
       </c>
-      <c r="S36" s="24">
+      <c r="S36">
         <v>18</v>
       </c>
-      <c r="T36" s="24">
+      <c r="T36">
         <v>19</v>
       </c>
-      <c r="U36" s="24">
+      <c r="U36">
         <v>20</v>
       </c>
-      <c r="V36" s="24">
+      <c r="V36">
         <v>21</v>
       </c>
-      <c r="W36" s="24">
+      <c r="W36">
         <v>22</v>
       </c>
-      <c r="X36" s="24">
+      <c r="X36">
         <v>23</v>
       </c>
-      <c r="Y36" s="24">
+      <c r="Y36">
         <v>24</v>
       </c>
-      <c r="Z36" s="24">
+      <c r="Z36">
         <v>25</v>
       </c>
-      <c r="AA36" s="24">
+      <c r="AA36">
         <v>26</v>
       </c>
-      <c r="AB36" s="24">
+      <c r="AB36">
         <v>27</v>
       </c>
-      <c r="AC36" s="24">
+      <c r="AC36">
         <v>28</v>
       </c>
-      <c r="AD36" s="24">
+      <c r="AD36">
         <v>29</v>
       </c>
-      <c r="AE36" s="24">
+      <c r="AE36">
         <v>30</v>
       </c>
     </row>
@@ -13458,119 +13432,119 @@
         <f>MOD(B36,2)=0</f>
         <v>0</v>
       </c>
-      <c r="C37" s="24" t="b">
+      <c r="C37" t="b">
         <f t="shared" ref="C37:AE37" si="1">MOD(C36,2)=0</f>
         <v>1</v>
       </c>
-      <c r="D37" s="24" t="b">
+      <c r="D37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E37" s="24" t="b">
+      <c r="E37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F37" s="24" t="b">
+      <c r="F37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="24" t="b">
+      <c r="G37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H37" s="24" t="b">
+      <c r="H37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="24" t="b">
+      <c r="I37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J37" s="24" t="b">
+      <c r="J37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K37" s="24" t="b">
+      <c r="K37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L37" s="24" t="b">
+      <c r="L37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="24" t="b">
+      <c r="M37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N37" s="24" t="b">
+      <c r="N37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O37" s="24" t="b">
+      <c r="O37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P37" s="24" t="b">
+      <c r="P37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="24" t="b">
+      <c r="Q37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R37" s="24" t="b">
+      <c r="R37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S37" s="24" t="b">
+      <c r="S37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T37" s="24" t="b">
+      <c r="T37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U37" s="24" t="b">
+      <c r="U37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V37" s="24" t="b">
+      <c r="V37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W37" s="24" t="b">
+      <c r="W37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X37" s="24" t="b">
+      <c r="X37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="24" t="b">
+      <c r="Y37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z37" s="24" t="b">
+      <c r="Z37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="24" t="b">
+      <c r="AA37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB37" s="24" t="b">
+      <c r="AB37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC37" s="24" t="b">
+      <c r="AC37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AD37" s="24" t="b">
+      <c r="AD37" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="24" t="b">
+      <c r="AE37" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13580,119 +13554,119 @@
         <f>B36^2</f>
         <v>1</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38">
         <f t="shared" ref="C38:AE38" si="2">C36^2</f>
         <v>4</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38">
         <f t="shared" si="2"/>
         <v>196</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q38">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R38">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="S38" s="24">
+      <c r="S38">
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="T38" s="24">
+      <c r="T38">
         <f t="shared" si="2"/>
         <v>361</v>
       </c>
-      <c r="U38" s="24">
+      <c r="U38">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="V38" s="24">
+      <c r="V38">
         <f t="shared" si="2"/>
         <v>441</v>
       </c>
-      <c r="W38" s="24">
+      <c r="W38">
         <f t="shared" si="2"/>
         <v>484</v>
       </c>
-      <c r="X38" s="24">
+      <c r="X38">
         <f t="shared" si="2"/>
         <v>529</v>
       </c>
-      <c r="Y38" s="24">
+      <c r="Y38">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="Z38" s="24">
+      <c r="Z38">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="AA38" s="24">
+      <c r="AA38">
         <f t="shared" si="2"/>
         <v>676</v>
       </c>
-      <c r="AB38" s="24">
+      <c r="AB38">
         <f t="shared" si="2"/>
         <v>729</v>
       </c>
-      <c r="AC38" s="24">
+      <c r="AC38">
         <f t="shared" si="2"/>
         <v>784</v>
       </c>
-      <c r="AD38" s="24">
+      <c r="AD38">
         <f t="shared" si="2"/>
         <v>841</v>
       </c>
-      <c r="AE38" s="24">
+      <c r="AE38">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
@@ -13709,16 +13683,16 @@
       </c>
     </row>
     <row r="43" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13756,12 +13730,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A43:H43"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13804,7 +13778,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14027,7 +14001,7 @@
         <v>275.74</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14074,7 +14048,7 @@
         <v>619.99</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -14121,7 +14095,7 @@
         <v>820.11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -14168,7 +14142,7 @@
         <v>530.17999999999995</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -14215,7 +14189,7 @@
         <v>288.2</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -14282,7 +14256,7 @@
         <v>756.29</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -14325,7 +14299,7 @@
         <v>409.45</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -14372,7 +14346,7 @@
         <v>383.62</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -14419,7 +14393,7 @@
         <v>894.16</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -14441,7 +14415,7 @@
       <c r="F30">
         <v>424.59</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30">
         <f>AVERAGEIFS(E4:E203,E4:E203,"&lt;=500")</f>
         <v>235.00676767676765</v>
       </c>
@@ -14466,7 +14440,7 @@
         <v>215.38</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -14513,7 +14487,7 @@
         <v>679.21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -17889,10 +17863,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF3F554-9FA9-4B23-99A2-5E258CD0F3F7}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17905,26 +17879,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -17969,11 +17943,11 @@
       <c r="D6" t="s">
         <v>507</v>
       </c>
-      <c r="E6" s="24" t="str">
+      <c r="E6" t="str">
         <f t="shared" ref="E6:E14" si="0">_xlfn.TEXTBEFORE(C6," - ")</f>
         <v>Mitski</v>
       </c>
-      <c r="F6" s="24" t="str">
+      <c r="F6" t="str">
         <f t="shared" ref="F6:F14" si="1">_xlfn.TEXTAFTER(C6," - ")</f>
         <v>Be The Cowboy</v>
       </c>
@@ -17985,11 +17959,11 @@
       <c r="D7" t="s">
         <v>509</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>Janelle Monae</v>
       </c>
-      <c r="F7" s="24" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="1"/>
         <v>Dirty Computer</v>
       </c>
@@ -18001,11 +17975,11 @@
       <c r="D8" t="s">
         <v>511</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>Low</v>
       </c>
-      <c r="F8" s="24" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>Double Negative</v>
       </c>
@@ -18017,11 +17991,11 @@
       <c r="D9" t="s">
         <v>513</v>
       </c>
-      <c r="E9" s="24" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>Robyn</v>
       </c>
-      <c r="F9" s="24" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="1"/>
         <v>Honey</v>
       </c>
@@ -18033,11 +18007,11 @@
       <c r="D10" t="s">
         <v>515</v>
       </c>
-      <c r="E10" s="24" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>Kacey Musgraves</v>
       </c>
-      <c r="F10" s="24" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="1"/>
         <v>Golden Hour</v>
       </c>
@@ -18049,11 +18023,11 @@
       <c r="D11" t="s">
         <v>517</v>
       </c>
-      <c r="E11" s="24" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>Cardi B</v>
       </c>
-      <c r="F11" s="24" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="1"/>
         <v>Invasion of Privacy</v>
       </c>
@@ -18065,11 +18039,11 @@
       <c r="D12" t="s">
         <v>505</v>
       </c>
-      <c r="E12" s="24" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>Noname</v>
       </c>
-      <c r="F12" s="24" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="1"/>
         <v>Room 25</v>
       </c>
@@ -18081,11 +18055,11 @@
       <c r="D13" t="s">
         <v>520</v>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>SOPHIE</v>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>OIL OF EVERY PEARL'S UN-INSIDES</v>
       </c>
@@ -18097,66 +18071,66 @@
       <c r="D14" t="s">
         <v>522</v>
       </c>
-      <c r="E14" s="24" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>Idles</v>
       </c>
-      <c r="F14" s="24" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="1"/>
         <v>Joy as an Act of Resistance</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>691</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C20" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="19" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C22" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>783</v>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>713</v>
@@ -18165,53 +18139,56 @@
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>722</v>
+        <v>796</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="24">
-        <f>(LEN(E24)-LEN(SUBSTITUTE(E24," "&amp;$D$20&amp;" ","")))/(LEN($D$20) + 2)</f>
+      <c r="D24">
+        <f t="shared" ref="D24:D29" si="2">(LEN(TRIM(E24))+2-LEN(SUBSTITUTE(" "&amp;TRIM(E24)&amp;" "," "&amp;$D$20&amp;" ","")))/(LEN($D$20) + 2)</f>
         <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>723</v>
+        <v>797</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="24">
-        <f>(LEN(E25)-LEN(SUBSTITUTE(E25," "&amp;$D$20&amp;" ","")))/(LEN($D$20) + 2)</f>
+      <c r="D25">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E25" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>798</v>
+      </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="24">
-        <f t="shared" ref="D26:D28" si="2">(LEN(E26)-LEN(SUBSTITUTE(E26," "&amp;$D$20&amp;" ","")))/(LEN($D$20) + 2)</f>
+      <c r="D26">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="D27" s="24">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -18219,11 +18196,8 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="D28" s="24">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18231,249 +18205,249 @@
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C38" t="s">
+        <v>753</v>
+      </c>
+      <c r="D38" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(PROPER(TRIM(_xlfn.TEXTBEFORE(C38,"("))),"'S","'s"),"Xiii","XIII")</f>
+        <v>Skyrim</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ref="E38:E46" si="3">_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C38,"("),")")</f>
+        <v>USA</v>
+      </c>
+      <c r="F38" t="str">
+        <f>_xlfn.TEXTAFTER(PROPER(TRIM(C38)),"Produced By")</f>
+        <v xml:space="preserve"> Bethesda Studios</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C39" t="s">
+        <v>754</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ref="D39:D46" si="4">SUBSTITUTE(SUBSTITUTE(PROPER(TRIM(_xlfn.TEXTBEFORE(C39,"("))),"'S","'s"),"Xiii","XIII")</f>
+        <v>Final Fantasy XIII</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v>Japan</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F46" si="5">_xlfn.TEXTAFTER(PROPER(TRIM(C39)),"Produced By")</f>
+        <v xml:space="preserve"> Square Enix</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C40" t="s">
+        <v>755</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="4"/>
+        <v>Tony Hawk's Pro Skater 2</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="3"/>
+        <v>USA</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Ea Sports</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="C41" t="s">
+        <v>756</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="4"/>
+        <v>Please Be Happy</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="3"/>
+        <v>USA</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Studio Élan</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="C42" t="s">
+        <v>757</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="4"/>
+        <v>Shadow Hearts</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="3"/>
+        <v>Japan</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Aruze</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C43" t="s">
         <v>758</v>
       </c>
-      <c r="D34" s="24" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(PROPER(TRIM(_xlfn.TEXTBEFORE(C34,"("))),"'S","'s"),"Xiii","XIII")</f>
-        <v>Skyrim</v>
-      </c>
-      <c r="E34" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C34,"("),")")</f>
+      <c r="D43" t="str">
+        <f t="shared" si="4"/>
+        <v>Life Is Strange</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v>France</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Dontnod Entertainment</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>761</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="4"/>
+        <v>Assassin's Creed: Valhalla</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="3"/>
+        <v>Canada</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Ubisoft</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C45" t="s">
+        <v>760</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="4"/>
+        <v>Daggerfall</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="3"/>
         <v>USA</v>
       </c>
-      <c r="F34" t="str">
-        <f>_xlfn.TEXTAFTER(PROPER(TRIM(C34)),"Produced By")</f>
+      <c r="F45" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Bethesda Studios</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C46" t="s">
         <v>759</v>
       </c>
-      <c r="D35" s="24" t="str">
-        <f t="shared" ref="D35:D42" si="3">SUBSTITUTE(SUBSTITUTE(PROPER(TRIM(_xlfn.TEXTBEFORE(C35,"("))),"'S","'s"),"Xiii","XIII")</f>
-        <v>Final Fantasy XIII</v>
-      </c>
-      <c r="E35" s="24" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C35,"("),")")</f>
+      <c r="D46" t="str">
+        <f t="shared" si="4"/>
+        <v>Valkyrie Profile</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="3"/>
         <v>Japan</v>
       </c>
-      <c r="F35" s="24" t="str">
-        <f t="shared" ref="F35:F42" si="4">_xlfn.TEXTAFTER(PROPER(TRIM(C35)),"Produced By")</f>
-        <v xml:space="preserve"> Square Enix</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C36" t="s">
-        <v>760</v>
-      </c>
-      <c r="D36" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>Tony Hawk's Pro Skater 2</v>
-      </c>
-      <c r="E36" s="24" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C36,"("),")")</f>
-        <v>USA</v>
-      </c>
-      <c r="F36" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> Ea Sports</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C37" t="s">
-        <v>761</v>
-      </c>
-      <c r="D37" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>Please Be Happy</v>
-      </c>
-      <c r="E37" s="24" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C37,"("),")")</f>
-        <v>USA</v>
-      </c>
-      <c r="F37" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> Studio Élan</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C38" t="s">
-        <v>762</v>
-      </c>
-      <c r="D38" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>Shadow Hearts</v>
-      </c>
-      <c r="E38" s="24" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C38,"("),")")</f>
-        <v>Japan</v>
-      </c>
-      <c r="F38" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> Aruze</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C39" t="s">
-        <v>763</v>
-      </c>
-      <c r="D39" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>Life Is Strange</v>
-      </c>
-      <c r="E39" s="24" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C39,"("),")")</f>
-        <v>France</v>
-      </c>
-      <c r="F39" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> Dontnod Entertainment</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>766</v>
-      </c>
-      <c r="D40" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>Assassin's Creed: Valhalla</v>
-      </c>
-      <c r="E40" s="24" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C40,"("),")")</f>
-        <v>Canada</v>
-      </c>
-      <c r="F40" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> Ubisoft</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="C41" t="s">
-        <v>765</v>
-      </c>
-      <c r="D41" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>Daggerfall</v>
-      </c>
-      <c r="E41" s="24" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C41,"("),")")</f>
-        <v>USA</v>
-      </c>
-      <c r="F41" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> Bethesda Studios</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="C42" t="s">
-        <v>764</v>
-      </c>
-      <c r="D42" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>Valkyrie Profile</v>
-      </c>
-      <c r="E42" s="24" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(C42,"("),")")</f>
-        <v>Japan</v>
-      </c>
-      <c r="F42" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="F46" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Tri-Ace</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>784</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/exercises/exercises02_solutions.xlsx
+++ b/exercises/exercises02_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4052" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343438FE-9BEA-422B-8B51-6C8B1EEE08C9}"/>
+  <xr:revisionPtr revIDLastSave="4053" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDBCC396-113A-4399-9C7E-EEFE93437F71}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="965" firstSheet="1" activeTab="4" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="965" firstSheet="1" activeTab="2" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales" sheetId="4" r:id="rId1"/>
@@ -4773,7 +4773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4787,24 +4787,24 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="59.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="59.453125" customWidth="1"/>
     <col min="12" max="12" width="56" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
+    <col min="15" max="15" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>-420.03925284244724</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>48.347055888223551</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>33.260612671575309</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>-163.84722706662018</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>-17.092237949856596</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>-134.96047000797853</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>81.196470910821148</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>-1.5071148992208379</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>-31.534573163831165</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>-188.44205412907704</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>91.534647786798544</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>-3.7978725191994065</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>-50.885333984613496</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>-93.087507772160791</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>35.224962202179242</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>81.531628159345857</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>41.998076406907039</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>34.077580724934641</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>-120.52651128238465</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>-83.25231481481481</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>98.446724871541946</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>82.819398494507141</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>-10287.520798668884</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>-30.493637026829862</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>-527.32602248430919</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>74.385023840485474</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>97.279982626635544</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>7.9967866793252087</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>-59.033515458422166</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>-695.07487520798668</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>-1264.4225604297224</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>96.466246841281929</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>27.691437029297816</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>-6608.7193460490471</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>-5.1516264267572387</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>50.726716510745248</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>-14.318656770195268</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>20.900530800675192</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>79.720437890165584</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>74.128771425707512</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>-22.851063829787236</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>-27276.760563380281</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>-751.14120511259887</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>-1495.8653846153848</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>-4.9876750406461534</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>-22.221795216683962</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>65.888913673879088</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>-547.85553047404062</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>78.236574746008714</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>73.521171017832359</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>-7.3184997441084079</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>13.038401812089164</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>13.061587899379823</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>-1203.85073441842</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>10.860819103769209</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>29.679150413744896</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>-0.1567756475160732</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>89.640056711322003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>32.560155432670754</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>-66.321889671361504</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>94.576953919027289</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>-360.28379935071735</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>-12.881957468909594</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>84.933486885400015</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>170</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>-40.472276523902615</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>54.462291020360631</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>-292.68192968111202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>92.807699204973417</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>-137.47689694789949</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>25.576865100531055</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>43.631451318222588</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>184</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>-127.03586443141124</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>93.536962522031189</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>13.417394874200927</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>-32.349389030974706</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>-41.129098394265931</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>33.702882483370281</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>196</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>70.223652998983397</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>-281.65355499480478</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>-85.653881700554521</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>-604.36860068259386</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>-1197.8025582158084</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>52.323538917695998</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>-78.374691198702109</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>57.7713614563962</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>-32.110532639166991</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>-8.7723356271323585</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>89.231755763395796</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>5.8589903862110084</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>-152.521604540178</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>38.324742758240298</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>12.807824896498257</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>87.787331110721169</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>67.837528747910682</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>-8.5447297915441425</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>81.167669819432504</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>-87.094099048902493</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>83.565260301011591</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>79.046092939956637</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>-64.89775789492225</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>-143.75099052267899</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>-166.74530951578475</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>9.3898761545318337</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>52.382451456921956</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>11.622002820874483</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>22.973309512208321</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>254</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>-72.581192438196808</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>-157.84736546034125</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>18.348256187975238</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>47.99184146249339</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>20.693555248876766</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>-2106.4174454828658</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>-56.953428201811114</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>268</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>-378.29233965551902</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>46.222940806610971</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>27.371723883351788</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>92.838237932890706</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>-29.177848255672114</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>-55.89709762532982</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>-1817.4572233051765</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>282</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>-0.20065727106112868</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>284</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>-1831.2252964426877</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>286</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>67.61334028139656</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>288</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>-241.11649102819712</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>-1633.7199086276578</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>57.108323736603488</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>294</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>48.703569705740463</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>-3148.8388969521047</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>298</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>-1292.4759793052474</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>57.390969666353946</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>302</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>77.506005173688095</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>28.226957651204362</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>-20.459639777432042</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>308</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>53.057453632687206</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>310</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>-34.785622026903575</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>-152.52762175174374</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>314</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>-12.604099350103033</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>-2515.4689403166872</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>56.876523493317649</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>320</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>-31.604516557548145</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>71.99709609292502</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>6.7795012022063998</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>326</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>-136.93625598387504</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>-19.383253602222929</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>-100.40170831747642</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>-163.86166572539119</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>334</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>-39.556259904912835</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>336</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>57.680509285219507</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>-94.774008050603783</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>339</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>99.300406073446325</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>341</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>52.278105665326606</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>88.391617637337205</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>345</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>52.442543868888379</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>347</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>89.959938875810522</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>349</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>-113.66424986056887</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>351</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>-53.399203657277688</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>353</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>20.559537365753453</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>5.4314463394453849</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>357</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>57.316703578505646</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>359</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>83.635294981999849</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>361</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>-8.4988962472406193</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>363</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>-512.73047939714615</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>365</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>-679.56907236152165</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>367</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>68.990751605536417</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>369</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>-262.3487018386769</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>371</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>10.617804020873518</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>373</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>-607.60990850256633</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>375</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>-343.22698867640838</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>377</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>42.445263386082814</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>379</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>33.572536850271526</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>381</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>-26.356170952466577</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>-147.13278664940293</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>385</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>-317.41481202062113</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>387</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>89.520871997281546</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>389</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>-258.99464149017609</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>391</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>38.947488041984769</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>393</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>-78247.222222222219</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>395</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>42.556901891217414</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>397</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>9.7106070633535921</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>399</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>86.840567002776567</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>401</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>-553.70304114490159</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>403</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>53.126778047897382</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>405</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>5.6288195561268232E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>15.885605212927013</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>409</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>82.462207156720694</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>411</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>-104.72685005811702</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>413</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>41.181885872876194</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>415</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>7.9982264718356033</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>417</v>
       </c>
@@ -11200,21 +11200,21 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>821</v>
       </c>
@@ -11228,8 +11228,8 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>825</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E4" s="26" t="s">
         <v>455</v>
       </c>
@@ -11254,7 +11254,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>450</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>451</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>452</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>453</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>454</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>457</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>458</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>459</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H13">
         <v>54</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>770</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>20</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H16">
         <v>45</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>91</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>93</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H19">
         <v>33</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H20">
         <v>85</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H21">
         <v>56</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H22">
         <v>43</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H23">
         <v>78</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H24">
         <v>95</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H25">
         <v>91</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>826</v>
       </c>
@@ -11627,8 +11627,8 @@
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>761</v>
       </c>
@@ -11642,7 +11642,7 @@
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>762</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>763</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>764</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>765</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>766</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>767</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>768</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>769</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>492</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>500</v>
       </c>
@@ -11877,7 +11877,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="118" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="27" t="s">
         <v>470</v>
       </c>
@@ -11891,8 +11891,8 @@
       <c r="I118" s="27"/>
       <c r="J118" s="27"/>
     </row>
-    <row r="119" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>731</v>
       </c>
@@ -11905,7 +11905,7 @@
       <c r="G120" s="29"/>
       <c r="H120" s="29"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>732</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>733</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>734</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>166.1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>735</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>246.21</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>736</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>687.25</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>737</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>388.17</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E127" t="s">
         <v>113</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>634.55999999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E128" t="s">
         <v>115</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>777.88</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E129" t="s">
         <v>117</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>89.66</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E130" t="s">
         <v>119</v>
       </c>
@@ -12048,24 +12048,24 @@
         <v>154.86000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E132" s="20" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E133">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E134" s="28" t="s">
         <v>726</v>
       </c>
       <c r="F134" s="28"/>
       <c r="G134" s="28"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E135" s="20" t="s">
         <v>439</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E136">
         <v>650</v>
       </c>
@@ -12081,14 +12081,14 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E137" s="28" t="s">
         <v>725</v>
       </c>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E138" s="20" t="s">
         <v>439</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E139">
         <v>300</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="27" t="s">
         <v>471</v>
       </c>
@@ -12118,8 +12118,8 @@
       <c r="I142" s="27"/>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="144" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E144" s="24" t="s">
         <v>730</v>
       </c>
@@ -12127,7 +12127,7 @@
       <c r="G144" s="24"/>
       <c r="H144" s="24"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E145" s="11" t="s">
         <v>685</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E146" t="s">
         <v>547</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E147" t="s">
         <v>549</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E148" t="s">
         <v>551</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E149" t="s">
         <v>553</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E150" t="s">
         <v>555</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E151" t="s">
         <v>557</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E152" t="s">
         <v>559</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E153" t="s">
         <v>561</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>703</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>691</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="7" t="s">
         <v>461</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E157" t="s">
         <v>569</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>702</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>692</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>693</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E161" t="s">
         <v>577</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
         <v>689</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E163" t="s">
         <v>581</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E164" t="s">
         <v>583</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E165" t="s">
         <v>585</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E166" t="s">
         <v>587</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E167" t="s">
         <v>589</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E168" t="s">
         <v>591</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>701</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>694</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>695</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>696</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>697</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="7" t="s">
         <v>461</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E175" t="s">
         <v>605</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>700</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>698</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>699</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="7" t="s">
         <v>461</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E180" t="s">
         <v>615</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E181" t="s">
         <v>617</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E182" t="s">
         <v>619</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E183" t="s">
         <v>621</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E184" t="s">
         <v>623</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E185" t="s">
         <v>625</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E186" t="s">
         <v>627</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E187" t="s">
         <v>629</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E188" t="s">
         <v>631</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E189" t="s">
         <v>633</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E190" t="s">
         <v>635</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E191" t="s">
         <v>637</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E192" t="s">
         <v>639</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E193" t="s">
         <v>641</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E194" t="s">
         <v>643</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E195" t="s">
         <v>645</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E196" t="s">
         <v>647</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E197" t="s">
         <v>649</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E198" t="s">
         <v>651</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E199" t="s">
         <v>653</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E200" t="s">
         <v>655</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E201" t="s">
         <v>657</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E202" t="s">
         <v>659</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E203" t="s">
         <v>661</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E204" t="s">
         <v>663</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E205" t="s">
         <v>665</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E206" t="s">
         <v>667</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E207" t="s">
         <v>669</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E208" t="s">
         <v>671</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E209" t="s">
         <v>673</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E210" t="s">
         <v>675</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E211" t="s">
         <v>677</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E212" t="s">
         <v>679</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E213" t="s">
         <v>681</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E214" t="s">
         <v>683</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="17" t="s">
         <v>688</v>
       </c>
@@ -13113,20 +13113,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424C6D28-6E30-4DAF-A5F2-B6FE86E21EB1}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>820</v>
       </c>
@@ -13140,8 +13140,8 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>827</v>
       </c>
@@ -13155,8 +13155,8 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="29" t="s">
         <v>460</v>
       </c>
@@ -13166,7 +13166,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="15">
         <v>18</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="15">
         <v>12</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15">
         <v>13</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="15">
         <v>10</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="15">
         <v>11</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>472</v>
       </c>
@@ -13289,13 +13289,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" cm="1">
         <f t="array" ref="A12">SUM(ABS(B6:G11-MEDIAN(B6:G11)))/(ROWS(B6:G11)*COLUMNS(B6:G11))</f>
         <v>2.8888888888888888</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>828</v>
       </c>
@@ -13309,8 +13309,8 @@
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="7" t="s">
         <v>463</v>
       </c>
@@ -13321,7 +13321,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>462</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>1.1760912590556813</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>466</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>0.90308998699194354</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>467</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>755</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>759</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>468</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>1096.6331584284585</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>758</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>8103.0839275753842</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>756</v>
       </c>
@@ -13427,12 +13427,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>829</v>
       </c>
@@ -13446,8 +13446,8 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>1</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B28" t="b">
         <f>MOD(B27,2)=1</f>
         <v>1</v>
@@ -13661,18 +13661,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B33" cm="1">
         <f t="array" ref="B33">SUMPRODUCT(B27:AE27,B28:AE28 * 1)</f>
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>830</v>
       </c>
@@ -13686,8 +13686,8 @@
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>1</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B38" t="b">
         <f>MOD(B37,2)=0</f>
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B39">
         <f>B37^2</f>
         <v>1</v>
@@ -14023,18 +14023,18 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B43" cm="1">
         <f t="array" ref="B43">SUMPRODUCT(B39:AE39,B38:AE38 * 1)</f>
         <v>4960</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="27" t="s">
         <v>831</v>
       </c>
@@ -14048,38 +14048,38 @@
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
     </row>
-    <row r="46" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="7" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B48">
         <f>COMBIN(52,13)</f>
         <v>635013559599.99976</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50">
         <f>COMBIN(13,4)</f>
         <v>715</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52">
-        <f>_xlfn.COMBINA(13,4)</f>
-        <v>1820.0000000000002</v>
+        <f>54^4</f>
+        <v>8503056</v>
       </c>
     </row>
   </sheetData>
@@ -14106,17 +14106,17 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="101.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="8" max="8" width="101.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>822</v>
       </c>
@@ -14130,8 +14130,8 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:10" ht="30" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -14156,7 +14156,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>147.76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>584.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>641.28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>677.01</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>440.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>335.77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>286.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>125.77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>216.18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>162.02000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>6513.17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>459.38227272727278</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>995.91</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>784.61</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -14636,7 +14636,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>595.07000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>748.74108910891107</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>235.00676767676765</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>381.17205882352943</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>489.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>370.11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>144.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>369.12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>368.38</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>410.79</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>600.32000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>249.31</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>229.71</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>653.58000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>787.79</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>555.08000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>983.42</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>442.12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>598.58000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>65.72</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>762.68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>780.63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>448.3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>128.47</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>826.8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>763.78</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>410.33</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>856.47</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>977.14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>539.37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>887.02</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>612.34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>691.22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>334.55</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>272.64</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>536.23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>190.98</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>693.14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>850.96</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>450.16</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>944.47</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>174</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>836.45</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>400.38</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>180</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>431.21</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>903.11</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>192.67</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>601.41999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>852.55</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>563.04</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>609.69000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>194</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>216.48</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>196</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>295.10000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>67.37</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>432.8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>711.63</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>542.41999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>408.68</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>749.1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>345.86</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>639.38</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>218</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>903.91</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>77.53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>222</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>525.77</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>224</v>
       </c>
@@ -16291,7 +16291,7 @@
         <v>606.27</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>911.84</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>795.71</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>230</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>765.15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>581.5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>385.87</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>810.6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>106.09</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>240</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>567.77</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>315.49</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>246</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>527.27</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>794.14</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>923.55</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>256</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>319.98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>948.21</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>794.26</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>963.73</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>432.88</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>268</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>149.21</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>333.99</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>325.08</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>274</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>891.68</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>327.92</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>280</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>282</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>632.91999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>284</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>286</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>383.8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>288</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>175.55</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>290</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>56.91</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>292</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>963.87</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>294</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>995.04</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>296</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>298</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>67.650000000000006</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>300</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>415.71</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>302</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>432.96</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>304</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>777.59</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>306</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>758.42</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>308</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>573.67999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>310</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>634.86</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>312</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>162.01</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>314</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>820.13</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>318</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>594.85</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>320</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>526.95000000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>606.08000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>324</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>636.33000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>326</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>328</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>698.18</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>330</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>472.98</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>301.01</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>334</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>504.8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>336</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>303.17</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>434.75</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>339</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>453.12</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>341</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>701.46</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>343</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>151.27000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>345</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>949.42</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>347</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>726.39</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>349</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>304.81</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>351</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>339.05</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>353</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>895.74</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>355</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>749.34</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>357</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>428.95</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>359</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>680.55</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>361</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>507.36</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>363</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>124.74</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>365</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>367</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>792.57</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>216.46</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>371</v>
       </c>
@@ -17771,7 +17771,7 @@
         <v>845.09</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>373</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>89.62</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>375</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>212.83</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>377</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>322.91000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>379</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>979.64</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>381</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>500.49</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>383</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>347.55</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>385</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>238.59</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>387</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>765.14</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>117.57</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>391</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>967.97</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>393</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>395</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>997.77</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>397</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>997.26</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>399</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>136.86000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>83.85</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>403</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>773.32</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>405</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>497.44</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>407</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>911.58</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>409</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>731.62</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>411</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>413</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>738.65</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>415</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>518.74</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>417</v>
       </c>
@@ -18247,20 +18247,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF3F554-9FA9-4B23-99A2-5E258CD0F3F7}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="55.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>824</v>
       </c>
@@ -18274,8 +18274,8 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>834</v>
       </c>
@@ -18289,8 +18289,8 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>705</v>
       </c>
@@ -18301,7 +18301,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>706</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>707</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>Daytona</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>503</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>Be The Cowboy</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>505</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>Dirty Computer</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>507</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>Double Negative</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>509</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>Honey</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>511</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>Golden Hour</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>513</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>Invasion of Privacy</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>515</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>Room 25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>516</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>OIL OF EVERY PEARL'S UN-INSIDES</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>518</v>
       </c>
@@ -18481,14 +18481,14 @@
         <v>Joy as an Act of Resistance</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>688</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
         <v>835</v>
       </c>
@@ -18502,8 +18502,8 @@
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>823</v>
       </c>
@@ -18514,7 +18514,7 @@
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>742</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>717</v>
       </c>
@@ -18551,7 +18551,7 @@
         <v xml:space="preserve"> Bethesda Studios</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>718</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v xml:space="preserve"> Square Enix</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>719</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v xml:space="preserve"> Ea Sports</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>720</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v xml:space="preserve"> Studio Élan</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>721</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v xml:space="preserve"> Aruze</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>722</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v xml:space="preserve"> Dontnod Entertainment</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>754</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v xml:space="preserve"> Ubisoft</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>773</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v xml:space="preserve"> Bethesda Studios</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>774</v>
       </c>
@@ -18708,12 +18708,12 @@
         <v xml:space="preserve"> Tri-Ace</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>836</v>
       </c>
@@ -18727,8 +18727,8 @@
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>805</v>
       </c>
@@ -18738,7 +18738,7 @@
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>806</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>819</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C40">
         <f t="shared" ref="C40:C43" si="5">LEN(TRIM(SUBSTITUTE(SUBSTITUTE(E40,".",""),"?","")))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E40,".",""),"?","")," ",""))+1</f>
         <v>4</v>
@@ -18779,7 +18779,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>818</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>815</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>816</v>
       </c>
@@ -18824,12 +18824,12 @@
         <v>813</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="27" t="s">
         <v>837</v>
       </c>
@@ -18843,8 +18843,8 @@
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="s">
         <v>798</v>
       </c>
@@ -18855,19 +18855,19 @@
         <v>709</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="29" t="s">
         <v>739</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>780</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>781</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>782</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>783</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C55">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -18942,7 +18942,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -18955,7 +18955,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C57">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -18967,7 +18967,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>785</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>771</v>
       </c>
@@ -18997,42 +18997,42 @@
         <v>791</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
         <v>802</v>
       </c>
@@ -19041,78 +19041,78 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C73" s="1" t="s">
         <v>795</v>
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C74" t="str">
         <f>" " &amp; SUBSTITUTE(TRIM(C71)," ","  ") &amp; " "</f>
         <v xml:space="preserve"> It's  a  horrible  idea  that  God,  this  paragon  of  wisdom  and  knowledge,  power,  couldn't  think  of  a  better  way  to  forgive  us  our  sins  than  to  come  down  to  Earth  in  his  alter  ego  as  his  son  and  have  himself  hideously  tortured  and  executed  so  that  he  could  forgive  himself. </v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C76" s="1" t="s">
         <v>796</v>
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C77" t="str">
         <f>TRIM(SUBSTITUTE(C74," "&amp;$D$48&amp;" ",""))</f>
         <v>It's a horrible idea that God, this paragon wisdom and knowledge, power, couldn't think a better way to forgive us our sins than to come down to Earth in his alter ego as his son and have himself hideously tortured and executed so that he could forgive himself.</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C79" s="1" t="s">
         <v>804</v>
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C80">
         <f>LEN(SUBSTITUTE(C77," ",""))</f>
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C82" s="1" t="s">
         <v>797</v>
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C83">
         <f>LEN(SUBSTITUTE(C71," ",""))</f>
         <v>218</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C85" s="1" t="s">
         <v>800</v>
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C86">
         <f>(C83-C80)/2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C88" s="1" t="s">
         <v>803</v>
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C89">
         <f>(LEN(SUBSTITUTE(C71," ",""))-LEN(SUBSTITUTE(TRIM(SUBSTITUTE(C74," "&amp;$D$48&amp;" ",""))," ","")))/2</f>
         <v>2</v>

--- a/exercises/exercises02_solutions.xlsx
+++ b/exercises/exercises02_solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4053" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDBCC396-113A-4399-9C7E-EEFE93437F71}"/>
+  <xr:revisionPtr revIDLastSave="4054" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E2FBC3-0343-4222-A0F6-72D8532AAEC7}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="965" firstSheet="1" activeTab="2" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
@@ -13114,7 +13114,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14078,8 +14078,8 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52">
-        <f>54^4</f>
-        <v>8503056</v>
+        <f>52^4</f>
+        <v>7311616</v>
       </c>
     </row>
   </sheetData>

--- a/exercises/exercises02_solutions.xlsx
+++ b/exercises/exercises02_solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4054" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E2FBC3-0343-4222-A0F6-72D8532AAEC7}"/>
+  <xr:revisionPtr revIDLastSave="4193" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E518FC6-DEF6-42AB-8CDA-5203701FD217}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="965" firstSheet="1" activeTab="2" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="846">
   <si>
     <t>Male</t>
   </si>
@@ -2311,19 +2311,7 @@
     <t>salespeople. Their base salary is in cell</t>
   </si>
   <si>
-    <t>F131 below. But they will be paid a</t>
-  </si>
-  <si>
     <t>multiple of this salary based on their</t>
-  </si>
-  <si>
-    <t>performance, as displaced in the cells</t>
-  </si>
-  <si>
-    <t>below F131. Please fill out the salary</t>
-  </si>
-  <si>
-    <t>column for all our salespeople!</t>
   </si>
   <si>
     <t>Table 3</t>
@@ -2756,6 +2744,33 @@
   </si>
   <si>
     <t>c) What is the mean January sale among salespeople with sales below 500?</t>
+  </si>
+  <si>
+    <t>Pop?</t>
+  </si>
+  <si>
+    <t>Rock?</t>
+  </si>
+  <si>
+    <t>performance, as displayed in the cells</t>
+  </si>
+  <si>
+    <t>E59 below. But they will be paid a</t>
+  </si>
+  <si>
+    <t>below E59. Please fill out the salary</t>
+  </si>
+  <si>
+    <t>column for all our salespeople! (I.e., if a</t>
+  </si>
+  <si>
+    <t>salesperson sells more than 650, he will</t>
+  </si>
+  <si>
+    <t>get a bonus of 25%.)</t>
+  </si>
+  <si>
+    <t>or</t>
   </si>
 </sst>
 </file>
@@ -2905,7 +2920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2947,6 +2962,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -3084,7 +3105,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3096,8 +3117,9 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3152,10 +3174,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="11"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="10" builtinId="34"/>
+    <cellStyle name="20% - Accent5" xfId="11" builtinId="46"/>
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
     <cellStyle name="Good" xfId="8" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -3384,13 +3408,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>64943</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>181841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4330</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4279,6 +4303,96 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110436</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>71782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9951B5CA-E907-EC2B-330F-4268836706D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604001" y="9270999"/>
+          <a:ext cx="4345608" cy="1391479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>This question could be interpreted in two ways!</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Either as the total ways you can draw a hand when you care about order (first answer), or the number of ways you can draw a hand when you don't care about order (second answer). Either answer would have been regarded as correct on the exam! (I.e., if exercises are vaguely worded, all reasonable answers will be graded as correct.)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11194,10 +11308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC0C6B7-48AE-4BCD-ADF0-20CF516D0AD5}">
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView zoomScale="92" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11216,7 +11330,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -11231,7 +11345,7 @@
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -11453,7 +11567,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -11615,7 +11729,7 @@
     </row>
     <row r="27" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -11630,12 +11744,12 @@
     <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="29" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -11644,7 +11758,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -11666,7 +11780,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -11689,7 +11803,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11710,9 +11824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11733,9 +11847,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11756,9 +11870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11779,9 +11893,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11802,9 +11916,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -11825,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -11846,7 +11960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>492</v>
       </c>
@@ -11864,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>500</v>
       </c>
@@ -11877,1230 +11991,1901 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="118" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="27" t="s">
+    <row r="44" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-    </row>
-    <row r="119" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="E120" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="E46" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="E121" s="11" t="s">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="E47" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48">
+        <v>8.81</v>
+      </c>
+      <c r="H48" cm="1">
+        <f t="array" ref="H48">_xlfn.IFS(G48&gt;$E$62,$E$59*(1+$G$62),G48&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49">
+        <v>166.1</v>
+      </c>
+      <c r="H49" cm="1">
+        <f t="array" ref="H49">_xlfn.IFS(G49&gt;$E$62,$E$59*(1+$G$62),G49&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="E50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50">
+        <v>246.21</v>
+      </c>
+      <c r="H50" cm="1">
+        <f t="array" ref="H50">_xlfn.IFS(G50&gt;$E$62,$E$59*(1+$G$62),G50&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
+        <v>841</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51">
+        <v>687.25</v>
+      </c>
+      <c r="H51" cm="1">
+        <f t="array" ref="H51">_xlfn.IFS(G51&gt;$E$62,$E$59*(1+$G$62),G51&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52">
+        <v>388.17</v>
+      </c>
+      <c r="H52" cm="1">
+        <f t="array" ref="H52">_xlfn.IFS(G52&gt;$E$62,$E$59*(1+$G$62),G52&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53">
+        <v>634.55999999999995</v>
+      </c>
+      <c r="H53" cm="1">
+        <f t="array" ref="H53">_xlfn.IFS(G53&gt;$E$62,$E$59*(1+$G$62),G53&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54">
+        <v>777.88</v>
+      </c>
+      <c r="H54" cm="1">
+        <f t="array" ref="H54">_xlfn.IFS(G54&gt;$E$62,$E$59*(1+$G$62),G54&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55">
+        <v>89.66</v>
+      </c>
+      <c r="H55" cm="1">
+        <f t="array" ref="H55">_xlfn.IFS(G55&gt;$E$62,$E$59*(1+$G$62),G55&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56">
+        <v>154.86000000000001</v>
+      </c>
+      <c r="H56" cm="1">
+        <f t="array" ref="H56">_xlfn.IFS(G56&gt;$E$62,$E$59*(1+$G$62),G56&gt;$E$65,$E$59*(1+$G$65),TRUE,$E$59)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E58" s="20" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E60" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E61" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>650</v>
+      </c>
+      <c r="G62" s="19">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E63" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E64" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>300</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E70" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E71" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E72" t="s">
+        <v>547</v>
+      </c>
+      <c r="F72" t="s">
+        <v>548</v>
+      </c>
+      <c r="G72" t="s">
+        <v>502</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72" t="b">
+        <f>NOT(SUBSTITUTE(G72,"Pop","") = G72)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <f>NOT(SUBSTITUTE(G72,"Rock","") = G72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E73" t="s">
+        <v>549</v>
+      </c>
+      <c r="F73" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" t="s">
+        <v>504</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <f t="shared" ref="I73:I136" si="1">NOT(SUBSTITUTE(G73,"Pop","") = G73)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <f t="shared" ref="J73:J136" si="2">NOT(SUBSTITUTE(G73,"Rock","") = G73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E74" t="s">
+        <v>551</v>
+      </c>
+      <c r="F74" t="s">
+        <v>552</v>
+      </c>
+      <c r="G74" t="s">
+        <v>506</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E75" t="s">
+        <v>553</v>
+      </c>
+      <c r="F75" t="s">
+        <v>554</v>
+      </c>
+      <c r="G75" t="s">
+        <v>508</v>
+      </c>
+      <c r="I75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>555</v>
+      </c>
+      <c r="F76" t="s">
+        <v>556</v>
+      </c>
+      <c r="G76" t="s">
+        <v>510</v>
+      </c>
+      <c r="H76">
+        <v>12</v>
+      </c>
+      <c r="I76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E77" t="s">
+        <v>557</v>
+      </c>
+      <c r="F77" t="s">
+        <v>558</v>
+      </c>
+      <c r="G77" t="s">
+        <v>512</v>
+      </c>
+      <c r="H77">
+        <v>9</v>
+      </c>
+      <c r="I77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E78" t="s">
+        <v>559</v>
+      </c>
+      <c r="F78" t="s">
+        <v>560</v>
+      </c>
+      <c r="G78" t="s">
+        <v>514</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E79" t="s">
+        <v>561</v>
+      </c>
+      <c r="F79" t="s">
+        <v>562</v>
+      </c>
+      <c r="G79" t="s">
+        <v>502</v>
+      </c>
+      <c r="H79">
+        <v>18</v>
+      </c>
+      <c r="I79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="E80" t="s">
+        <v>563</v>
+      </c>
+      <c r="F80" t="s">
+        <v>564</v>
+      </c>
+      <c r="G80" t="s">
+        <v>517</v>
+      </c>
+      <c r="I80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="E81" t="s">
+        <v>565</v>
+      </c>
+      <c r="F81" t="s">
+        <v>566</v>
+      </c>
+      <c r="G81" t="s">
+        <v>519</v>
+      </c>
+      <c r="I81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E82" t="s">
+        <v>567</v>
+      </c>
+      <c r="F82" t="s">
+        <v>568</v>
+      </c>
+      <c r="G82" t="s">
+        <v>504</v>
+      </c>
+      <c r="H82">
+        <v>22</v>
+      </c>
+      <c r="I82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <f>COUNT(H72:H140)</f>
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>569</v>
+      </c>
+      <c r="F83" t="s">
+        <v>570</v>
+      </c>
+      <c r="G83" t="s">
+        <v>520</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="E84" t="s">
+        <v>571</v>
+      </c>
+      <c r="F84" t="s">
+        <v>572</v>
+      </c>
+      <c r="G84" t="s">
+        <v>521</v>
+      </c>
+      <c r="I84" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="E85" t="s">
+        <v>573</v>
+      </c>
+      <c r="F85" t="s">
+        <v>574</v>
+      </c>
+      <c r="G85" t="s">
+        <v>522</v>
+      </c>
+      <c r="H85">
+        <v>47</v>
+      </c>
+      <c r="I85" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="E86" t="s">
+        <v>575</v>
+      </c>
+      <c r="F86" t="s">
+        <v>576</v>
+      </c>
+      <c r="G86" t="s">
+        <v>523</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E87" t="s">
+        <v>577</v>
+      </c>
+      <c r="F87" t="s">
+        <v>578</v>
+      </c>
+      <c r="G87" t="s">
+        <v>524</v>
+      </c>
+      <c r="I87" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E88" t="s">
+        <v>579</v>
+      </c>
+      <c r="F88" t="s">
+        <v>580</v>
+      </c>
+      <c r="G88" t="s">
+        <v>506</v>
+      </c>
+      <c r="I88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J88" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <f>LARGE(H72:H140,$C89)</f>
+        <v>50</v>
+      </c>
+      <c r="B89">
+        <f>SMALL(H72:H140,$C89)</f>
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>581</v>
+      </c>
+      <c r="F89" t="s">
+        <v>582</v>
+      </c>
+      <c r="G89" t="s">
+        <v>517</v>
+      </c>
+      <c r="I89" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <f t="shared" ref="A90:A93" si="3">LARGE(H73:H141,$C90)</f>
+        <v>47</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90:B93" si="4">SMALL(H73:H141,$C90)</f>
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>583</v>
+      </c>
+      <c r="F90" t="s">
+        <v>584</v>
+      </c>
+      <c r="G90" t="s">
+        <v>525</v>
+      </c>
+      <c r="H90">
+        <v>25</v>
+      </c>
+      <c r="I90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>585</v>
+      </c>
+      <c r="F91" t="s">
+        <v>586</v>
+      </c>
+      <c r="G91" t="s">
+        <v>526</v>
+      </c>
+      <c r="I91" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>587</v>
+      </c>
+      <c r="F92" t="s">
+        <v>588</v>
+      </c>
+      <c r="G92" t="s">
+        <v>527</v>
+      </c>
+      <c r="H92">
+        <v>11</v>
+      </c>
+      <c r="I92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>589</v>
+      </c>
+      <c r="F93" t="s">
+        <v>590</v>
+      </c>
+      <c r="G93" t="s">
+        <v>528</v>
+      </c>
+      <c r="H93">
+        <v>14</v>
+      </c>
+      <c r="I93" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E94" t="s">
+        <v>591</v>
+      </c>
+      <c r="F94" t="s">
+        <v>592</v>
+      </c>
+      <c r="G94" t="s">
+        <v>506</v>
+      </c>
+      <c r="H94">
+        <v>19</v>
+      </c>
+      <c r="I94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="E95" t="s">
+        <v>593</v>
+      </c>
+      <c r="F95" t="s">
+        <v>594</v>
+      </c>
+      <c r="G95" t="s">
+        <v>504</v>
+      </c>
+      <c r="H95">
+        <v>27</v>
+      </c>
+      <c r="I95" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="E96" t="s">
+        <v>595</v>
+      </c>
+      <c r="F96" t="s">
+        <v>596</v>
+      </c>
+      <c r="G96" t="s">
+        <v>529</v>
+      </c>
+      <c r="I96" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="E97" t="s">
+        <v>597</v>
+      </c>
+      <c r="F97" t="s">
+        <v>598</v>
+      </c>
+      <c r="G97" t="s">
+        <v>514</v>
+      </c>
+      <c r="I97" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="E98" t="s">
+        <v>599</v>
+      </c>
+      <c r="F98" t="s">
+        <v>600</v>
+      </c>
+      <c r="G98" t="s">
+        <v>506</v>
+      </c>
+      <c r="I98" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="E99" t="s">
+        <v>601</v>
+      </c>
+      <c r="F99" t="s">
+        <v>602</v>
+      </c>
+      <c r="G99" t="s">
+        <v>530</v>
+      </c>
+      <c r="I99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E100" t="s">
+        <v>603</v>
+      </c>
+      <c r="F100" t="s">
+        <v>604</v>
+      </c>
+      <c r="G100" t="s">
+        <v>531</v>
+      </c>
+      <c r="I100" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" cm="1">
+        <f t="array" ref="A101">SUM(1*I72:I140)</f>
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>605</v>
+      </c>
+      <c r="F101" t="s">
+        <v>606</v>
+      </c>
+      <c r="G101" t="s">
+        <v>504</v>
+      </c>
+      <c r="I101" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102" t="s">
+        <v>607</v>
+      </c>
+      <c r="F102" t="s">
+        <v>608</v>
+      </c>
+      <c r="G102" t="s">
+        <v>506</v>
+      </c>
+      <c r="I102" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="E103" t="s">
+        <v>609</v>
+      </c>
+      <c r="F103" t="s">
+        <v>610</v>
+      </c>
+      <c r="G103" t="s">
+        <v>532</v>
+      </c>
+      <c r="H103">
+        <v>42</v>
+      </c>
+      <c r="I103" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="E104" t="s">
+        <v>611</v>
+      </c>
+      <c r="F104" t="s">
+        <v>612</v>
+      </c>
+      <c r="G104" t="s">
+        <v>527</v>
+      </c>
+      <c r="H104">
+        <v>37</v>
+      </c>
+      <c r="I104" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E105" t="s">
+        <v>613</v>
+      </c>
+      <c r="F105" t="s">
+        <v>614</v>
+      </c>
+      <c r="G105" t="s">
+        <v>522</v>
+      </c>
+      <c r="H105">
+        <v>10</v>
+      </c>
+      <c r="I105" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" cm="1">
+        <f t="array" ref="A106">SUMPRODUCT(1*J72:J140,1*NOT(ISBLANK(H72:H140)))</f>
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>615</v>
+      </c>
+      <c r="F106" t="s">
+        <v>616</v>
+      </c>
+      <c r="G106" t="s">
+        <v>502</v>
+      </c>
+      <c r="H106">
+        <v>21</v>
+      </c>
+      <c r="I106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E107" t="s">
+        <v>617</v>
+      </c>
+      <c r="F107" t="s">
+        <v>618</v>
+      </c>
+      <c r="G107" t="s">
+        <v>527</v>
+      </c>
+      <c r="H107">
+        <v>26</v>
+      </c>
+      <c r="I107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E108" t="s">
+        <v>619</v>
+      </c>
+      <c r="F108" t="s">
+        <v>620</v>
+      </c>
+      <c r="G108" t="s">
+        <v>519</v>
+      </c>
+      <c r="I108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E109" t="s">
+        <v>621</v>
+      </c>
+      <c r="F109" t="s">
+        <v>622</v>
+      </c>
+      <c r="G109" t="s">
+        <v>533</v>
+      </c>
+      <c r="H109">
+        <v>7</v>
+      </c>
+      <c r="I109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E110" t="s">
+        <v>623</v>
+      </c>
+      <c r="F110" t="s">
+        <v>624</v>
+      </c>
+      <c r="G110" t="s">
+        <v>502</v>
+      </c>
+      <c r="I110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E111" t="s">
+        <v>625</v>
+      </c>
+      <c r="F111" t="s">
+        <v>626</v>
+      </c>
+      <c r="G111" t="s">
+        <v>529</v>
+      </c>
+      <c r="I111" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E112" t="s">
+        <v>627</v>
+      </c>
+      <c r="F112" t="s">
+        <v>628</v>
+      </c>
+      <c r="G112" t="s">
+        <v>534</v>
+      </c>
+      <c r="I112" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E113" t="s">
+        <v>629</v>
+      </c>
+      <c r="F113" t="s">
+        <v>630</v>
+      </c>
+      <c r="G113" t="s">
+        <v>535</v>
+      </c>
+      <c r="I113" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E114" t="s">
+        <v>631</v>
+      </c>
+      <c r="F114" t="s">
+        <v>632</v>
+      </c>
+      <c r="G114" t="s">
+        <v>536</v>
+      </c>
+      <c r="H114">
+        <v>17</v>
+      </c>
+      <c r="I114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E115" t="s">
+        <v>633</v>
+      </c>
+      <c r="F115" t="s">
+        <v>634</v>
+      </c>
+      <c r="G115" t="s">
+        <v>502</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E116" t="s">
+        <v>635</v>
+      </c>
+      <c r="F116" t="s">
+        <v>636</v>
+      </c>
+      <c r="G116" t="s">
+        <v>519</v>
+      </c>
+      <c r="I116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E117" t="s">
+        <v>637</v>
+      </c>
+      <c r="F117" t="s">
+        <v>638</v>
+      </c>
+      <c r="G117" t="s">
+        <v>537</v>
+      </c>
+      <c r="H117">
+        <v>30</v>
+      </c>
+      <c r="I117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E118" t="s">
+        <v>639</v>
+      </c>
+      <c r="F118" t="s">
+        <v>640</v>
+      </c>
+      <c r="G118" t="s">
+        <v>538</v>
+      </c>
+      <c r="I118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E119" t="s">
+        <v>641</v>
+      </c>
+      <c r="F119" t="s">
+        <v>642</v>
+      </c>
+      <c r="G119" t="s">
+        <v>528</v>
+      </c>
+      <c r="I119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E120" t="s">
+        <v>643</v>
+      </c>
+      <c r="F120" t="s">
+        <v>644</v>
+      </c>
+      <c r="G120" t="s">
+        <v>522</v>
+      </c>
+      <c r="I120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E121" t="s">
+        <v>645</v>
+      </c>
+      <c r="F121" t="s">
+        <v>646</v>
+      </c>
+      <c r="G121" t="s">
+        <v>536</v>
+      </c>
+      <c r="I121" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E122" t="s">
-        <v>102</v>
+        <v>647</v>
       </c>
       <c r="F122" t="s">
-        <v>103</v>
-      </c>
-      <c r="G122">
-        <v>8.81</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+        <v>648</v>
+      </c>
+      <c r="G122" t="s">
+        <v>539</v>
+      </c>
+      <c r="H122">
+        <v>39</v>
+      </c>
+      <c r="I122" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E123" t="s">
-        <v>104</v>
+        <v>649</v>
       </c>
       <c r="F123" t="s">
-        <v>105</v>
-      </c>
-      <c r="G123">
-        <v>166.1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+        <v>650</v>
+      </c>
+      <c r="G123" t="s">
+        <v>502</v>
+      </c>
+      <c r="I123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E124" t="s">
-        <v>106</v>
+        <v>651</v>
       </c>
       <c r="F124" t="s">
-        <v>107</v>
-      </c>
-      <c r="G124">
-        <v>246.21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+        <v>652</v>
+      </c>
+      <c r="G124" t="s">
+        <v>504</v>
+      </c>
+      <c r="I124" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E125" t="s">
-        <v>108</v>
+        <v>653</v>
       </c>
       <c r="F125" t="s">
-        <v>109</v>
-      </c>
-      <c r="G125">
-        <v>687.25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+        <v>654</v>
+      </c>
+      <c r="G125" t="s">
+        <v>502</v>
+      </c>
+      <c r="I125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E126" t="s">
-        <v>111</v>
+        <v>655</v>
       </c>
       <c r="F126" t="s">
-        <v>112</v>
-      </c>
-      <c r="G126">
-        <v>388.17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+      <c r="G126" t="s">
+        <v>514</v>
+      </c>
+      <c r="I126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E127" t="s">
-        <v>113</v>
+        <v>657</v>
       </c>
       <c r="F127" t="s">
-        <v>114</v>
-      </c>
-      <c r="G127">
-        <v>634.55999999999995</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+      <c r="G127" t="s">
+        <v>502</v>
+      </c>
+      <c r="H127">
+        <v>15</v>
+      </c>
+      <c r="I127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E128" t="s">
-        <v>115</v>
+        <v>659</v>
       </c>
       <c r="F128" t="s">
-        <v>116</v>
-      </c>
-      <c r="G128">
-        <v>777.88</v>
+        <v>660</v>
+      </c>
+      <c r="G128" t="s">
+        <v>540</v>
+      </c>
+      <c r="I128" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E129" t="s">
-        <v>117</v>
+        <v>661</v>
       </c>
       <c r="F129" t="s">
-        <v>118</v>
-      </c>
-      <c r="G129">
-        <v>89.66</v>
+        <v>662</v>
+      </c>
+      <c r="G129" t="s">
+        <v>541</v>
+      </c>
+      <c r="I129" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E130" t="s">
-        <v>119</v>
+        <v>663</v>
       </c>
       <c r="F130" t="s">
-        <v>120</v>
-      </c>
-      <c r="G130">
-        <v>154.86000000000001</v>
+        <v>664</v>
+      </c>
+      <c r="G130" t="s">
+        <v>510</v>
+      </c>
+      <c r="H130">
+        <v>23</v>
+      </c>
+      <c r="I130" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E131" t="s">
+        <v>665</v>
+      </c>
+      <c r="F131" t="s">
+        <v>666</v>
+      </c>
+      <c r="G131" t="s">
+        <v>542</v>
+      </c>
+      <c r="I131" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E132" s="20" t="s">
-        <v>729</v>
+      <c r="E132" t="s">
+        <v>667</v>
+      </c>
+      <c r="F132" t="s">
+        <v>668</v>
+      </c>
+      <c r="G132" t="s">
+        <v>543</v>
+      </c>
+      <c r="H132">
+        <v>36</v>
+      </c>
+      <c r="I132" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E133">
-        <v>100</v>
+      <c r="E133" t="s">
+        <v>669</v>
+      </c>
+      <c r="F133" t="s">
+        <v>670</v>
+      </c>
+      <c r="G133" t="s">
+        <v>536</v>
+      </c>
+      <c r="I133" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E134" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
+      <c r="E134" t="s">
+        <v>671</v>
+      </c>
+      <c r="F134" t="s">
+        <v>672</v>
+      </c>
+      <c r="G134" t="s">
+        <v>544</v>
+      </c>
+      <c r="I134" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E135" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="G135" s="20" t="s">
-        <v>723</v>
+      <c r="E135" t="s">
+        <v>673</v>
+      </c>
+      <c r="F135" t="s">
+        <v>674</v>
+      </c>
+      <c r="G135" t="s">
+        <v>504</v>
+      </c>
+      <c r="I135" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J135" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E136">
-        <v>650</v>
-      </c>
-      <c r="G136" s="19">
-        <v>0.23</v>
+      <c r="E136" t="s">
+        <v>675</v>
+      </c>
+      <c r="F136" t="s">
+        <v>676</v>
+      </c>
+      <c r="G136" t="s">
+        <v>545</v>
+      </c>
+      <c r="H136">
+        <v>43</v>
+      </c>
+      <c r="I136" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E137" s="28" t="s">
-        <v>725</v>
-      </c>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
+      <c r="E137" t="s">
+        <v>677</v>
+      </c>
+      <c r="F137" t="s">
+        <v>678</v>
+      </c>
+      <c r="G137" t="s">
+        <v>536</v>
+      </c>
+      <c r="H137">
+        <v>50</v>
+      </c>
+      <c r="I137" t="b">
+        <f t="shared" ref="I137:I140" si="5">NOT(SUBSTITUTE(G137,"Pop","") = G137)</f>
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
+        <f t="shared" ref="J137:J140" si="6">NOT(SUBSTITUTE(G137,"Rock","") = G137)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E138" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="G138" s="20" t="s">
-        <v>727</v>
+      <c r="E138" t="s">
+        <v>679</v>
+      </c>
+      <c r="F138" t="s">
+        <v>680</v>
+      </c>
+      <c r="G138" t="s">
+        <v>504</v>
+      </c>
+      <c r="H138">
+        <v>44</v>
+      </c>
+      <c r="I138" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E139">
-        <v>300</v>
-      </c>
-      <c r="G139" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="144" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E144" s="24" t="s">
-        <v>730</v>
-      </c>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="24"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E145" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E146" t="s">
-        <v>547</v>
-      </c>
-      <c r="F146" t="s">
-        <v>548</v>
-      </c>
-      <c r="G146" t="s">
-        <v>502</v>
-      </c>
-      <c r="H146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E147" t="s">
-        <v>549</v>
-      </c>
-      <c r="F147" t="s">
-        <v>550</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="E139" t="s">
+        <v>681</v>
+      </c>
+      <c r="F139" t="s">
+        <v>682</v>
+      </c>
+      <c r="G139" t="s">
         <v>504</v>
       </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E148" t="s">
-        <v>551</v>
-      </c>
-      <c r="F148" t="s">
-        <v>552</v>
-      </c>
-      <c r="G148" t="s">
-        <v>506</v>
-      </c>
-      <c r="H148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E149" t="s">
-        <v>553</v>
-      </c>
-      <c r="F149" t="s">
-        <v>554</v>
-      </c>
-      <c r="G149" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E150" t="s">
-        <v>555</v>
-      </c>
-      <c r="F150" t="s">
-        <v>556</v>
-      </c>
-      <c r="G150" t="s">
-        <v>510</v>
-      </c>
-      <c r="H150">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E151" t="s">
-        <v>557</v>
-      </c>
-      <c r="F151" t="s">
-        <v>558</v>
-      </c>
-      <c r="G151" t="s">
-        <v>512</v>
-      </c>
-      <c r="H151">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E152" t="s">
-        <v>559</v>
-      </c>
-      <c r="F152" t="s">
-        <v>560</v>
-      </c>
-      <c r="G152" t="s">
-        <v>514</v>
-      </c>
-      <c r="H152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E153" t="s">
-        <v>561</v>
-      </c>
-      <c r="F153" t="s">
-        <v>562</v>
-      </c>
-      <c r="G153" t="s">
-        <v>502</v>
-      </c>
-      <c r="H153">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="E154" t="s">
-        <v>563</v>
-      </c>
-      <c r="F154" t="s">
-        <v>564</v>
-      </c>
-      <c r="G154" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="E155" t="s">
-        <v>565</v>
-      </c>
-      <c r="F155" t="s">
-        <v>566</v>
-      </c>
-      <c r="G155" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E156" t="s">
-        <v>567</v>
-      </c>
-      <c r="F156" t="s">
-        <v>568</v>
-      </c>
-      <c r="G156" t="s">
-        <v>504</v>
-      </c>
-      <c r="H156">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E157" t="s">
-        <v>569</v>
-      </c>
-      <c r="F157" t="s">
-        <v>570</v>
-      </c>
-      <c r="G157" t="s">
-        <v>520</v>
-      </c>
-      <c r="H157">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="E158" t="s">
-        <v>571</v>
-      </c>
-      <c r="F158" t="s">
-        <v>572</v>
-      </c>
-      <c r="G158" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="E159" t="s">
-        <v>573</v>
-      </c>
-      <c r="F159" t="s">
-        <v>574</v>
-      </c>
-      <c r="G159" t="s">
-        <v>522</v>
-      </c>
-      <c r="H159">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="E160" t="s">
-        <v>575</v>
-      </c>
-      <c r="F160" t="s">
-        <v>576</v>
-      </c>
-      <c r="G160" t="s">
-        <v>523</v>
-      </c>
-      <c r="H160">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E161" t="s">
-        <v>577</v>
-      </c>
-      <c r="F161" t="s">
-        <v>578</v>
-      </c>
-      <c r="G161" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="E162" t="s">
-        <v>579</v>
-      </c>
-      <c r="F162" t="s">
-        <v>580</v>
-      </c>
-      <c r="G162" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E163" t="s">
-        <v>581</v>
-      </c>
-      <c r="F163" t="s">
-        <v>582</v>
-      </c>
-      <c r="G163" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E164" t="s">
-        <v>583</v>
-      </c>
-      <c r="F164" t="s">
-        <v>584</v>
-      </c>
-      <c r="G164" t="s">
-        <v>525</v>
-      </c>
-      <c r="H164">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E165" t="s">
-        <v>585</v>
-      </c>
-      <c r="F165" t="s">
-        <v>586</v>
-      </c>
-      <c r="G165" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E166" t="s">
-        <v>587</v>
-      </c>
-      <c r="F166" t="s">
-        <v>588</v>
-      </c>
-      <c r="G166" t="s">
-        <v>527</v>
-      </c>
-      <c r="H166">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E167" t="s">
-        <v>589</v>
-      </c>
-      <c r="F167" t="s">
-        <v>590</v>
-      </c>
-      <c r="G167" t="s">
-        <v>528</v>
-      </c>
-      <c r="H167">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E168" t="s">
-        <v>591</v>
-      </c>
-      <c r="F168" t="s">
-        <v>592</v>
-      </c>
-      <c r="G168" t="s">
-        <v>506</v>
-      </c>
-      <c r="H168">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="E169" t="s">
-        <v>593</v>
-      </c>
-      <c r="F169" t="s">
-        <v>594</v>
-      </c>
-      <c r="G169" t="s">
-        <v>504</v>
-      </c>
-      <c r="H169">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="E170" t="s">
-        <v>595</v>
-      </c>
-      <c r="F170" t="s">
-        <v>596</v>
-      </c>
-      <c r="G170" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="E171" t="s">
-        <v>597</v>
-      </c>
-      <c r="F171" t="s">
-        <v>598</v>
-      </c>
-      <c r="G171" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="E172" t="s">
-        <v>599</v>
-      </c>
-      <c r="F172" t="s">
-        <v>600</v>
-      </c>
-      <c r="G172" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="E173" t="s">
-        <v>601</v>
-      </c>
-      <c r="F173" t="s">
-        <v>602</v>
-      </c>
-      <c r="G173" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E174" t="s">
-        <v>603</v>
-      </c>
-      <c r="F174" t="s">
-        <v>604</v>
-      </c>
-      <c r="G174" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E175" t="s">
-        <v>605</v>
-      </c>
-      <c r="F175" t="s">
-        <v>606</v>
-      </c>
-      <c r="G175" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="E176" t="s">
-        <v>607</v>
-      </c>
-      <c r="F176" t="s">
-        <v>608</v>
-      </c>
-      <c r="G176" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="E177" t="s">
-        <v>609</v>
-      </c>
-      <c r="F177" t="s">
-        <v>610</v>
-      </c>
-      <c r="G177" t="s">
-        <v>532</v>
-      </c>
-      <c r="H177">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="E178" t="s">
-        <v>611</v>
-      </c>
-      <c r="F178" t="s">
-        <v>612</v>
-      </c>
-      <c r="G178" t="s">
-        <v>527</v>
-      </c>
-      <c r="H178">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E179" t="s">
-        <v>613</v>
-      </c>
-      <c r="F179" t="s">
-        <v>614</v>
-      </c>
-      <c r="G179" t="s">
-        <v>522</v>
-      </c>
-      <c r="H179">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E180" t="s">
-        <v>615</v>
-      </c>
-      <c r="F180" t="s">
-        <v>616</v>
-      </c>
-      <c r="G180" t="s">
-        <v>502</v>
-      </c>
-      <c r="H180">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E181" t="s">
-        <v>617</v>
-      </c>
-      <c r="F181" t="s">
-        <v>618</v>
-      </c>
-      <c r="G181" t="s">
-        <v>527</v>
-      </c>
-      <c r="H181">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E182" t="s">
-        <v>619</v>
-      </c>
-      <c r="F182" t="s">
-        <v>620</v>
-      </c>
-      <c r="G182" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E183" t="s">
-        <v>621</v>
-      </c>
-      <c r="F183" t="s">
-        <v>622</v>
-      </c>
-      <c r="G183" t="s">
-        <v>533</v>
-      </c>
-      <c r="H183">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E184" t="s">
-        <v>623</v>
-      </c>
-      <c r="F184" t="s">
-        <v>624</v>
-      </c>
-      <c r="G184" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E185" t="s">
-        <v>625</v>
-      </c>
-      <c r="F185" t="s">
-        <v>626</v>
-      </c>
-      <c r="G185" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E186" t="s">
-        <v>627</v>
-      </c>
-      <c r="F186" t="s">
-        <v>628</v>
-      </c>
-      <c r="G186" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E187" t="s">
-        <v>629</v>
-      </c>
-      <c r="F187" t="s">
-        <v>630</v>
-      </c>
-      <c r="G187" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E188" t="s">
-        <v>631</v>
-      </c>
-      <c r="F188" t="s">
-        <v>632</v>
-      </c>
-      <c r="G188" t="s">
-        <v>536</v>
-      </c>
-      <c r="H188">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E189" t="s">
-        <v>633</v>
-      </c>
-      <c r="F189" t="s">
-        <v>634</v>
-      </c>
-      <c r="G189" t="s">
-        <v>502</v>
-      </c>
-      <c r="H189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E190" t="s">
-        <v>635</v>
-      </c>
-      <c r="F190" t="s">
-        <v>636</v>
-      </c>
-      <c r="G190" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E191" t="s">
-        <v>637</v>
-      </c>
-      <c r="F191" t="s">
-        <v>638</v>
-      </c>
-      <c r="G191" t="s">
-        <v>537</v>
-      </c>
-      <c r="H191">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E192" t="s">
-        <v>639</v>
-      </c>
-      <c r="F192" t="s">
-        <v>640</v>
-      </c>
-      <c r="G192" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E193" t="s">
-        <v>641</v>
-      </c>
-      <c r="F193" t="s">
-        <v>642</v>
-      </c>
-      <c r="G193" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E194" t="s">
-        <v>643</v>
-      </c>
-      <c r="F194" t="s">
-        <v>644</v>
-      </c>
-      <c r="G194" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E195" t="s">
-        <v>645</v>
-      </c>
-      <c r="F195" t="s">
-        <v>646</v>
-      </c>
-      <c r="G195" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E196" t="s">
-        <v>647</v>
-      </c>
-      <c r="F196" t="s">
-        <v>648</v>
-      </c>
-      <c r="G196" t="s">
-        <v>539</v>
-      </c>
-      <c r="H196">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E197" t="s">
-        <v>649</v>
-      </c>
-      <c r="F197" t="s">
-        <v>650</v>
-      </c>
-      <c r="G197" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E198" t="s">
-        <v>651</v>
-      </c>
-      <c r="F198" t="s">
-        <v>652</v>
-      </c>
-      <c r="G198" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E199" t="s">
-        <v>653</v>
-      </c>
-      <c r="F199" t="s">
-        <v>654</v>
-      </c>
-      <c r="G199" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E200" t="s">
-        <v>655</v>
-      </c>
-      <c r="F200" t="s">
-        <v>656</v>
-      </c>
-      <c r="G200" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E201" t="s">
-        <v>657</v>
-      </c>
-      <c r="F201" t="s">
-        <v>658</v>
-      </c>
-      <c r="G201" t="s">
-        <v>502</v>
-      </c>
-      <c r="H201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E202" t="s">
-        <v>659</v>
-      </c>
-      <c r="F202" t="s">
-        <v>660</v>
-      </c>
-      <c r="G202" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E203" t="s">
-        <v>661</v>
-      </c>
-      <c r="F203" t="s">
-        <v>662</v>
-      </c>
-      <c r="G203" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E204" t="s">
-        <v>663</v>
-      </c>
-      <c r="F204" t="s">
-        <v>664</v>
-      </c>
-      <c r="G204" t="s">
-        <v>510</v>
-      </c>
-      <c r="H204">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E205" t="s">
-        <v>665</v>
-      </c>
-      <c r="F205" t="s">
-        <v>666</v>
-      </c>
-      <c r="G205" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E206" t="s">
-        <v>667</v>
-      </c>
-      <c r="F206" t="s">
-        <v>668</v>
-      </c>
-      <c r="G206" t="s">
-        <v>543</v>
-      </c>
-      <c r="H206">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E207" t="s">
-        <v>669</v>
-      </c>
-      <c r="F207" t="s">
-        <v>670</v>
-      </c>
-      <c r="G207" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E208" t="s">
-        <v>671</v>
-      </c>
-      <c r="F208" t="s">
-        <v>672</v>
-      </c>
-      <c r="G208" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E209" t="s">
-        <v>673</v>
-      </c>
-      <c r="F209" t="s">
-        <v>674</v>
-      </c>
-      <c r="G209" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E210" t="s">
-        <v>675</v>
-      </c>
-      <c r="F210" t="s">
-        <v>676</v>
-      </c>
-      <c r="G210" t="s">
-        <v>545</v>
-      </c>
-      <c r="H210">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E211" t="s">
-        <v>677</v>
-      </c>
-      <c r="F211" t="s">
-        <v>678</v>
-      </c>
-      <c r="G211" t="s">
-        <v>536</v>
-      </c>
-      <c r="H211">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E212" t="s">
-        <v>679</v>
-      </c>
-      <c r="F212" t="s">
-        <v>680</v>
-      </c>
-      <c r="G212" t="s">
-        <v>504</v>
-      </c>
-      <c r="H212">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E213" t="s">
-        <v>681</v>
-      </c>
-      <c r="F213" t="s">
-        <v>682</v>
-      </c>
-      <c r="G213" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E214" t="s">
+      <c r="I139" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E140" t="s">
         <v>683</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F140" t="s">
         <v>684</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G140" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="17" t="s">
+      <c r="I140" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="B216" s="17"/>
-      <c r="C216" s="17"/>
-      <c r="D216" s="17"/>
-      <c r="E216" s="17"/>
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="16"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E144:H144"/>
+    <mergeCell ref="E70:H70"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A142:J142"/>
-    <mergeCell ref="A118:J118"/>
-    <mergeCell ref="E134:G134"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="E120:H120"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E46:H46"/>
     <mergeCell ref="E29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13111,10 +13896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424C6D28-6E30-4DAF-A5F2-B6FE86E21EB1}">
-  <dimension ref="A1:AE52"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13128,7 +13913,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -13143,7 +13928,7 @@
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -13297,7 +14082,7 @@
     </row>
     <row r="13" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -13361,7 +14146,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C19">
         <f>LOG(10^5)</f>
@@ -13373,7 +14158,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C20">
         <f>10^(LOG(4))</f>
@@ -13398,10 +14183,10 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B22" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C22">
         <f>EXP(3)^3</f>
@@ -13414,7 +14199,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B23" t="s">
         <v>469</v>
@@ -13429,12 +14214,12 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -13674,7 +14459,7 @@
     </row>
     <row r="35" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -14036,7 +14821,7 @@
     </row>
     <row r="45" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="27" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -14080,6 +14865,17 @@
       <c r="B52">
         <f>52^4</f>
         <v>7311616</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <f>_xlfn.COMBINA(52,4)</f>
+        <v>341055.00000000006</v>
       </c>
     </row>
   </sheetData>
@@ -14118,7 +14914,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -14151,7 +14947,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -14376,7 +15172,7 @@
         <v>275.74</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -14423,7 +15219,7 @@
         <v>619.99</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -14470,7 +15266,7 @@
         <v>820.11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -14517,7 +15313,7 @@
         <v>530.17999999999995</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -14564,7 +15360,7 @@
         <v>288.2</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -14631,7 +15427,7 @@
         <v>756.29</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -14676,7 +15472,7 @@
         <v>409.45</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -14723,7 +15519,7 @@
         <v>383.62</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -14770,7 +15566,7 @@
         <v>894.16</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -14817,7 +15613,7 @@
         <v>215.38</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -14864,7 +15660,7 @@
         <v>679.21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -18262,7 +19058,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -18277,7 +19073,7 @@
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -18490,7 +19286,7 @@
     </row>
     <row r="20" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -18505,7 +19301,7 @@
     <row r="21" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>456</v>
@@ -18516,13 +19312,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>477</v>
@@ -18536,7 +19332,7 @@
         <v>717</v>
       </c>
       <c r="C24" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D24" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(PROPER(TRIM(_xlfn.TEXTBEFORE(C24,"("))),"'S","'s"),"Xiii","XIII")</f>
@@ -18556,7 +19352,7 @@
         <v>718</v>
       </c>
       <c r="C25" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ref="D25:D32" si="3">SUBSTITUTE(SUBSTITUTE(PROPER(TRIM(_xlfn.TEXTBEFORE(C25,"("))),"'S","'s"),"Xiii","XIII")</f>
@@ -18576,7 +19372,7 @@
         <v>719</v>
       </c>
       <c r="C26" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="3"/>
@@ -18596,7 +19392,7 @@
         <v>720</v>
       </c>
       <c r="C27" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="3"/>
@@ -18616,7 +19412,7 @@
         <v>721</v>
       </c>
       <c r="C28" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="3"/>
@@ -18636,7 +19432,7 @@
         <v>722</v>
       </c>
       <c r="C29" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="3"/>
@@ -18653,7 +19449,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="3"/>
@@ -18670,10 +19466,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C31" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="3"/>
@@ -18690,10 +19486,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C32" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="3"/>
@@ -18710,12 +19506,12 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -18730,31 +19526,31 @@
     <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C39">
         <f>LEN(TRIM(SUBSTITUTE(SUBSTITUTE(E39,".",""),"?","")))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E39,".",""),"?","")," ",""))+1</f>
@@ -18764,7 +19560,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -18776,12 +19572,12 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C41">
         <f t="shared" si="5"/>
@@ -18791,12 +19587,12 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C42">
         <f t="shared" si="5"/>
@@ -18806,12 +19602,12 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C43">
         <f t="shared" si="5"/>
@@ -18821,17 +19617,17 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="27" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -18846,7 +19642,7 @@
     <row r="47" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>708</v>
@@ -18857,22 +19653,22 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="29" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>710</v>
@@ -18883,7 +19679,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C52">
         <f t="shared" ref="C52:C59" si="6">(LEN(SUBSTITUTE(E52," ",""))-LEN(SUBSTITUTE(TRIM(SUBSTITUTE(" " &amp; SUBSTITUTE(TRIM(E52)," ","  ") &amp; " "," "&amp;$D$48&amp;" ",""))," ","")))/2</f>
@@ -18899,7 +19695,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C53">
         <f t="shared" si="6"/>
@@ -18915,7 +19711,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C54">
         <f t="shared" si="6"/>
@@ -18964,12 +19760,12 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C58">
         <f t="shared" si="6"/>
@@ -18979,12 +19775,12 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C59">
         <f t="shared" si="6"/>
@@ -18994,50 +19790,50 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D70" s="1"/>
     </row>
@@ -19048,7 +19844,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C73" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D73" s="1"/>
     </row>
@@ -19060,7 +19856,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C76" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D76" s="1"/>
     </row>
@@ -19072,7 +19868,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C79" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -19084,7 +19880,7 @@
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C82" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D82" s="1"/>
     </row>
@@ -19096,7 +19892,7 @@
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C85" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D85" s="1"/>
     </row>
@@ -19108,7 +19904,7 @@
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C88" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D88" s="1"/>
     </row>

--- a/exercises/exercises02_solutions.xlsx
+++ b/exercises/exercises02_solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4193" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E518FC6-DEF6-42AB-8CDA-5203701FD217}"/>
+  <xr:revisionPtr revIDLastSave="4197" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E049BE-4DEF-400F-AE1F-FDF73C532B5B}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="965" firstSheet="1" activeTab="2" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="965" firstSheet="1" activeTab="4" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="847">
   <si>
     <t>Male</t>
   </si>
@@ -2771,6 +2771,9 @@
   </si>
   <si>
     <t>or</t>
+  </si>
+  <si>
+    <t>=LEN(TRIM(SUBSTITUTE(SUBSTITUTE(E39;".";"");"?";"")))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E39;".";"");"?";"");" ";""))+1</t>
   </si>
 </sst>
 </file>
@@ -3119,7 +3122,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3156,6 +3159,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="6"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3174,7 +3178,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -4574,7 +4578,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="nb-NO" sz="1100" b="0" baseline="0"/>
-            <a:t>We want to substitute every instance of the word with just a white space, i.e., " of " with "of". But that won't work since "of course" won't count an isntance of "of". We could try to substitute "of " with " ", but that wouldn't work since "cradle of" would not have its "of" substituted. </a:t>
+            <a:t>We want to substitute every instance of the word with just a white space, i.e., " of " with "of". But that won't work since "of course" won't count as an instance of "of". We could try to substitute "of " with " ", but that wouldn't work since "cradle of" would not have its "of" substituted. </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="nb-NO" sz="1100" b="0" baseline="0"/>
@@ -4592,10 +4596,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4901,24 +4901,24 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" customWidth="1"/>
-    <col min="9" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="59.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="59.42578125" customWidth="1"/>
     <col min="12" max="12" width="56" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="32.7265625" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>-420.03925284244724</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>48.347055888223551</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>33.260612671575309</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>-163.84722706662018</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>-17.092237949856596</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>-134.96047000797853</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>81.196470910821148</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>-1.5071148992208379</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>-31.534573163831165</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>-188.44205412907704</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>91.534647786798544</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>-3.7978725191994065</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>-50.885333984613496</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>-93.087507772160791</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>35.224962202179242</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>81.531628159345857</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>41.998076406907039</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>34.077580724934641</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>-120.52651128238465</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>-83.25231481481481</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>98.446724871541946</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>82.819398494507141</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>-10287.520798668884</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>-30.493637026829862</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>-527.32602248430919</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>74.385023840485474</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>97.279982626635544</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>7.9967866793252087</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>-59.033515458422166</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>-695.07487520798668</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>-1264.4225604297224</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>96.466246841281929</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>27.691437029297816</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>-6608.7193460490471</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>-5.1516264267572387</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>50.726716510745248</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>-14.318656770195268</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>20.900530800675192</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>79.720437890165584</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>74.128771425707512</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>-22.851063829787236</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>-27276.760563380281</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>-751.14120511259887</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>-1495.8653846153848</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>-4.9876750406461534</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>-22.221795216683962</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>65.888913673879088</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>-547.85553047404062</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>78.236574746008714</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>73.521171017832359</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>-7.3184997441084079</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>13.038401812089164</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>13.061587899379823</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>-1203.85073441842</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>10.860819103769209</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>29.679150413744896</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>-0.1567756475160732</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>89.640056711322003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>32.560155432670754</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>-66.321889671361504</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>94.576953919027289</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>-360.28379935071735</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>-12.881957468909594</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>84.933486885400015</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>170</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>-40.472276523902615</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>54.462291020360631</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>-292.68192968111202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>92.807699204973417</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>-137.47689694789949</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>25.576865100531055</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>43.631451318222588</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>184</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>-127.03586443141124</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>93.536962522031189</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>13.417394874200927</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>-32.349389030974706</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>-41.129098394265931</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>33.702882483370281</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>196</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>70.223652998983397</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>-281.65355499480478</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>-85.653881700554521</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>-604.36860068259386</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>-1197.8025582158084</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>52.323538917695998</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>-78.374691198702109</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>57.7713614563962</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>-32.110532639166991</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>-8.7723356271323585</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>89.231755763395796</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>5.8589903862110084</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>-152.521604540178</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>38.324742758240298</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>12.807824896498257</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>87.787331110721169</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>67.837528747910682</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>-8.5447297915441425</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>81.167669819432504</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>-87.094099048902493</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>83.565260301011591</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>79.046092939956637</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>-64.89775789492225</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>-143.75099052267899</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>-166.74530951578475</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>9.3898761545318337</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>52.382451456921956</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>11.622002820874483</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>22.973309512208321</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>254</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>-72.581192438196808</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>-157.84736546034125</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>18.348256187975238</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>47.99184146249339</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>20.693555248876766</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>-2106.4174454828658</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>-56.953428201811114</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>268</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>-378.29233965551902</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>46.222940806610971</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>27.371723883351788</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>92.838237932890706</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>-29.177848255672114</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>-55.89709762532982</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>-1817.4572233051765</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>282</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>-0.20065727106112868</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>284</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>-1831.2252964426877</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>286</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>67.61334028139656</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>288</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>-241.11649102819712</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>-1633.7199086276578</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>57.108323736603488</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>294</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>48.703569705740463</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>-3148.8388969521047</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>298</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>-1292.4759793052474</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>57.390969666353946</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>302</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>77.506005173688095</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>28.226957651204362</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>-20.459639777432042</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>308</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>53.057453632687206</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>310</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>-34.785622026903575</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>-152.52762175174374</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>314</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>-12.604099350103033</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>-2515.4689403166872</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>56.876523493317649</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>320</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>-31.604516557548145</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>71.99709609292502</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>6.7795012022063998</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>326</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>-136.93625598387504</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>-19.383253602222929</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>-100.40170831747642</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>-163.86166572539119</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>334</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>-39.556259904912835</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>336</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>57.680509285219507</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>-94.774008050603783</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>339</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>99.300406073446325</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>341</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>52.278105665326606</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>88.391617637337205</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>345</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>52.442543868888379</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>347</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>89.959938875810522</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>349</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>-113.66424986056887</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>351</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>-53.399203657277688</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>353</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>20.559537365753453</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>5.4314463394453849</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>357</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>57.316703578505646</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>359</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>83.635294981999849</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>361</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>-8.4988962472406193</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>363</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>-512.73047939714615</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>365</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>-679.56907236152165</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>367</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>68.990751605536417</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>369</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>-262.3487018386769</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>371</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>10.617804020873518</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>373</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>-607.60990850256633</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>375</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>-343.22698867640838</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>377</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>42.445263386082814</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>379</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>33.572536850271526</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>381</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>-26.356170952466577</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>-147.13278664940293</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>385</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>-317.41481202062113</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>387</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>89.520871997281546</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>389</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>-258.99464149017609</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>391</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>38.947488041984769</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>393</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>-78247.222222222219</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>395</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>42.556901891217414</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>397</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>9.7106070633535921</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>399</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>86.840567002776567</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>401</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>-553.70304114490159</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>403</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>53.126778047897382</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>405</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>5.6288195561268232E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>15.885605212927013</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>409</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>82.462207156720694</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>411</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>-104.72685005811702</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>413</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>41.181885872876194</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>415</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>7.9982264718356033</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>417</v>
       </c>
@@ -11314,61 +11314,61 @@
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>821</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="26" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>450</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>451</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>452</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>453</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>454</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>457</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>458</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>459</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>54</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>766</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>20</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>45</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>91</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>93</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>33</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>85</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>56</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>43</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>78</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>95</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>91</v>
       </c>
@@ -11727,36 +11727,36 @@
         <v>A</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>758</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>759</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>760</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>761</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>762</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>763</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>764</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>765</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -11960,7 +11960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>492</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>500</v>
       </c>
@@ -11991,40 +11991,40 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="30" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="E46" s="29" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="E46" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="30" t="s">
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
       <c r="E47" s="11" t="s">
         <v>724</v>
       </c>
@@ -12038,12 +12038,12 @@
         <v>728</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="30" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
         <v>840</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
       <c r="E48" t="s">
         <v>102</v>
       </c>
@@ -12058,12 +12058,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="30" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
         <v>733</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
       <c r="E49" t="s">
         <v>104</v>
       </c>
@@ -12078,12 +12078,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="30" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>839</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="E50" t="s">
         <v>106</v>
       </c>
@@ -12098,12 +12098,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="30" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
       <c r="E51" t="s">
         <v>108</v>
       </c>
@@ -12118,12 +12118,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>842</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
       <c r="E52" t="s">
         <v>111</v>
       </c>
@@ -12138,12 +12138,12 @@
         <v>110.00000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
         <v>843</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
       <c r="E53" t="s">
         <v>113</v>
       </c>
@@ -12158,12 +12158,12 @@
         <v>110.00000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="30" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
         <v>844</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
       <c r="E54" t="s">
         <v>115</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>117</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>119</v>
       </c>
@@ -12208,24 +12208,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E58" s="20" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E60" s="28" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E60" s="29" t="s">
         <v>726</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E61" s="20" t="s">
         <v>439</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>650</v>
       </c>
@@ -12241,14 +12241,14 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E63" s="28" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E63" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E64" s="20" t="s">
         <v>439</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>300</v>
       </c>
@@ -12264,30 +12264,30 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="27" t="s">
+    <row r="68" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="70" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E70" s="24" t="s">
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E71" s="11" t="s">
         <v>685</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>547</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>549</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>551</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>553</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>555</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>557</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>559</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>561</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>703</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>691</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>461</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>COUNT(H72:H140)</f>
         <v>32</v>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>702</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>692</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>693</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>577</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>689</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>LARGE(H72:H140,$C89)</f>
         <v>50</v>
@@ -12731,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ref="A90:A93" si="3">LARGE(H73:H141,$C90)</f>
         <v>47</v>
@@ -12764,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -12794,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>591</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>701</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>694</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>695</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>696</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>697</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>461</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" cm="1">
         <f t="array" ref="A101">SUM(1*I72:I140)</f>
         <v>15</v>
@@ -13050,7 +13050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>700</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>698</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>699</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>461</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" cm="1">
         <f t="array" ref="A106">SUMPRODUCT(1*J72:J140,1*NOT(ISBLANK(H72:H140)))</f>
         <v>6</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>617</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>619</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>621</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>623</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>625</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>627</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>629</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>631</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>633</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>635</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>637</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>639</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
         <v>641</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
         <v>643</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
         <v>645</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
         <v>647</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
         <v>649</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
         <v>651</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
         <v>653</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
         <v>655</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
         <v>657</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
         <v>659</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>661</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>663</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
         <v>665</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>667</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>669</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>671</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>673</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
         <v>675</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
         <v>677</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
         <v>679</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
         <v>681</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
         <v>683</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>688</v>
       </c>
@@ -13898,60 +13898,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424C6D28-6E30-4DAF-A5F2-B6FE86E21EB1}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" customWidth="1"/>
-    <col min="2" max="2" width="48.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>816</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="29" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>18</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
         <v>12</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <v>13</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <v>10</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <v>11</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>472</v>
       </c>
@@ -14074,28 +14074,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" cm="1">
         <f t="array" ref="A12">SUM(ABS(B6:G11-MEDIAN(B6:G11)))/(ROWS(B6:G11)*COLUMNS(B6:G11))</f>
         <v>2.8888888888888888</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>824</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>463</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>462</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>1.1760912590556813</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>466</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>0.90308998699194354</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>467</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>751</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>755</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>468</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>1096.6331584284585</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>754</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>8103.0839275753842</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>752</v>
       </c>
@@ -14212,27 +14212,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-    </row>
-    <row r="26" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B28" t="b">
         <f>MOD(B27,2)=1</f>
         <v>1</v>
@@ -14446,33 +14446,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B33" cm="1">
         <f t="array" ref="B33">SUMPRODUCT(B27:AE27,B28:AE28 * 1)</f>
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38" t="b">
         <f>MOD(B37,2)=0</f>
         <v>0</v>
@@ -14686,7 +14686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B37^2</f>
         <v>1</v>
@@ -14808,71 +14808,71 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B43" cm="1">
         <f t="array" ref="B43">SUMPRODUCT(B39:AE39,B38:AE38 * 1)</f>
         <v>4960</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-    </row>
-    <row r="46" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+    </row>
+    <row r="46" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B48">
         <f>COMBIN(52,13)</f>
         <v>635013559599.99976</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
         <f>COMBIN(13,4)</f>
         <v>715</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
         <f>52^4</f>
         <v>7311616</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <f>_xlfn.COMBINA(52,4)</f>
         <v>341055.00000000006</v>
@@ -14902,32 +14902,32 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
-    <col min="8" max="8" width="101.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="101.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>818</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:10" ht="30" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -14946,13 +14946,13 @@
       <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>147.76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>584.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>641.28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>677.01</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>440.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>335.77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>286.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>125.77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>216.18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>162.02000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>6513.17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>459.38227272727278</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>995.91</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>784.61</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -15426,13 +15426,13 @@
       <c r="F25">
         <v>756.29</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>595.07000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>748.74108910891107</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>235.00676767676765</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>381.17205882352943</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>489.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>370.11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>144.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>369.12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>368.38</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>410.79</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>600.32000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>249.31</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>229.71</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>653.58000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>787.79</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>555.08000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>983.42</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>442.12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>598.58000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>65.72</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>762.68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>780.63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>448.3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>128.47</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>826.8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>763.78</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>410.33</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>856.47</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>977.14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>539.37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>887.02</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>612.34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>691.22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>334.55</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>272.64</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>536.23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>190.98</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>693.14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>850.96</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>450.16</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>944.47</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>174</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>836.45</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>400.38</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>180</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>431.21</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>903.11</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>192.67</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>601.41999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>852.55</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>563.04</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>609.69000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>194</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>216.48</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>196</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>295.10000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>67.37</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>432.8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>711.63</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>542.41999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>408.68</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>749.1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>345.86</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>639.38</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>218</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>903.91</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>77.53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>222</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>525.77</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>224</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>606.27</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>911.84</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>795.71</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>230</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>765.15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>581.5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>385.87</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>810.6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>106.09</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>240</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>567.77</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>315.49</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>246</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>527.27</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>794.14</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>923.55</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>256</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>319.98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>948.21</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>794.26</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>963.73</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>432.88</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>268</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>149.21</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>333.99</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>325.08</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>274</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>891.68</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>327.92</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>280</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>282</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>632.91999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>284</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>286</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>383.8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>288</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>175.55</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>290</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>56.91</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>292</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>963.87</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>294</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>995.04</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>296</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>298</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>67.650000000000006</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>300</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>415.71</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>302</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>432.96</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>304</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>777.59</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>306</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>758.42</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>308</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>573.67999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>310</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>634.86</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>312</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>162.01</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>314</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>820.13</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>318</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>594.85</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>320</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>526.95000000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>606.08000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>324</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>636.33000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>326</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>328</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>698.18</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>330</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>472.98</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>301.01</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>334</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>504.8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>336</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>303.17</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>434.75</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>339</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>453.12</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>341</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>701.46</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>343</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>151.27000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>345</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>949.42</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>347</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>726.39</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>349</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>304.81</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>351</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>339.05</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>353</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>895.74</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>355</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>749.34</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>357</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>428.95</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>359</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>680.55</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>361</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>507.36</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>363</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>124.74</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>365</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>367</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>792.57</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>216.46</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>371</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>845.09</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>373</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>89.62</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>375</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>212.83</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>377</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>322.91000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>379</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>979.64</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>381</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>500.49</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>383</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>347.55</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>385</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>238.59</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>387</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>765.14</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>117.57</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>391</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>967.97</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>393</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>395</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>997.77</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>397</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>997.26</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>399</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>136.86000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>83.85</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>403</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>773.32</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>405</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>497.44</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>407</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>911.58</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>409</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>731.62</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>411</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>413</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>738.65</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>415</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>518.74</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>417</v>
       </c>
@@ -19043,61 +19043,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF3F554-9FA9-4B23-99A2-5E258CD0F3F7}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>830</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>706</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>707</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>Daytona</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>503</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>Be The Cowboy</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>505</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>Dirty Computer</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>507</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>Double Negative</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>509</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>Honey</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>511</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>Golden Hour</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>513</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>Invasion of Privacy</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>515</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>Room 25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>516</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>OIL OF EVERY PEARL'S UN-INSIDES</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>518</v>
       </c>
@@ -19277,40 +19277,40 @@
         <v>Joy as an Act of Resistance</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>688</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>738</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>717</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v xml:space="preserve"> Bethesda Studios</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>718</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v xml:space="preserve"> Square Enix</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>719</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v xml:space="preserve"> Ea Sports</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>720</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v xml:space="preserve"> Studio Élan</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>721</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v xml:space="preserve"> Aruze</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>722</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v xml:space="preserve"> Dontnod Entertainment</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>750</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v xml:space="preserve"> Ubisoft</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>769</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v xml:space="preserve"> Bethesda Studios</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>770</v>
       </c>
@@ -19504,37 +19504,37 @@
         <v xml:space="preserve"> Tri-Ace</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>802</v>
       </c>
@@ -19548,13 +19548,12 @@
         <v>804</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C39">
-        <f>LEN(TRIM(SUBSTITUTE(SUBSTITUTE(E39,".",""),"?","")))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E39,".",""),"?","")," ",""))+1</f>
-        <v>4</v>
+      <c r="C39" s="31" t="s">
+        <v>846</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -19563,7 +19562,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C40">
         <f t="shared" ref="C40:C43" si="5">LEN(TRIM(SUBSTITUTE(SUBSTITUTE(E40,".",""),"?","")))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E40,".",""),"?","")," ",""))+1</f>
         <v>4</v>
@@ -19575,7 +19574,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>814</v>
       </c>
@@ -19590,7 +19589,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>811</v>
       </c>
@@ -19605,7 +19604,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>812</v>
       </c>
@@ -19620,27 +19619,27 @@
         <v>809</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
         <v>833</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>794</v>
       </c>
@@ -19651,19 +19650,19 @@
         <v>709</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="29" t="s">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>776</v>
       </c>
@@ -19677,7 +19676,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>777</v>
       </c>
@@ -19693,7 +19692,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>778</v>
       </c>
@@ -19709,7 +19708,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>779</v>
       </c>
@@ -19725,7 +19724,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C55">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -19738,7 +19737,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -19751,7 +19750,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -19763,7 +19762,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>781</v>
       </c>
@@ -19778,7 +19777,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>767</v>
       </c>
@@ -19793,42 +19792,42 @@
         <v>787</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>798</v>
       </c>
@@ -19837,78 +19836,78 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
         <v>791</v>
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C74" t="str">
         <f>" " &amp; SUBSTITUTE(TRIM(C71)," ","  ") &amp; " "</f>
         <v xml:space="preserve"> It's  a  horrible  idea  that  God,  this  paragon  of  wisdom  and  knowledge,  power,  couldn't  think  of  a  better  way  to  forgive  us  our  sins  than  to  come  down  to  Earth  in  his  alter  ego  as  his  son  and  have  himself  hideously  tortured  and  executed  so  that  he  could  forgive  himself. </v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>792</v>
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C77" t="str">
         <f>TRIM(SUBSTITUTE(C74," "&amp;$D$48&amp;" ",""))</f>
         <v>It's a horrible idea that God, this paragon wisdom and knowledge, power, couldn't think a better way to forgive us our sins than to come down to Earth in his alter ego as his son and have himself hideously tortured and executed so that he could forgive himself.</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>800</v>
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>LEN(SUBSTITUTE(C77," ",""))</f>
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>793</v>
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>LEN(SUBSTITUTE(C71," ",""))</f>
         <v>218</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>796</v>
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>(C83-C80)/2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
         <v>799</v>
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>(LEN(SUBSTITUTE(C71," ",""))-LEN(SUBSTITUTE(TRIM(SUBSTITUTE(C74," "&amp;$D$48&amp;" ",""))," ","")))/2</f>
         <v>2</v>

--- a/exercises/exercises02_solutions.xlsx
+++ b/exercises/exercises02_solutions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3160,6 +3160,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3178,7 +3179,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -4887,7 +4887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11329,44 +11329,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>817</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>821</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="28"/>
+      <c r="H4" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -11728,18 +11728,18 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="29" t="s">
         <v>822</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11748,13 +11748,13 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -11992,18 +11992,18 @@
       <c r="I42" s="8"/>
     </row>
     <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12012,12 +12012,12 @@
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
@@ -12219,11 +12219,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E61" s="20" t="s">
@@ -12242,11 +12242,11 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E64" s="20" t="s">
@@ -12265,27 +12265,27 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E71" s="11" t="s">
@@ -13912,44 +13912,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>816</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>823</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
@@ -14081,18 +14081,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>824</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14218,18 +14218,18 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>825</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -14458,18 +14458,18 @@
       </c>
     </row>
     <row r="35" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>826</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -14820,18 +14820,18 @@
       </c>
     </row>
     <row r="45" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="29" t="s">
         <v>827</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14913,18 +14913,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>818</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -14946,11 +14946,11 @@
       <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="29" t="s">
         <v>828</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -15426,11 +15426,11 @@
       <c r="F25">
         <v>756.29</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="29" t="s">
         <v>829</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -19057,45 +19057,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>820</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>830</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -19285,30 +19285,30 @@
       <c r="C18" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>831</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -19510,29 +19510,29 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>832</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -19552,7 +19552,7 @@
       <c r="A39" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="25" t="s">
         <v>846</v>
       </c>
       <c r="D39">
@@ -19625,18 +19625,18 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>833</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -19656,11 +19656,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
